--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3076,14 +3076,20 @@
         <v>26.05000000000003</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +3117,20 @@
         <v>25.65000000000003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>25.9</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3165,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3204,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3216,14 +3236,20 @@
         <v>25.55000000000004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +3277,20 @@
         <v>25.65000000000004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>25.5</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3325,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3364,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3403,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3442,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3481,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3520,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3559,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3598,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3637,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3676,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3715,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3754,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +3793,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3832,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3871,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +3910,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +3949,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +3988,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4027,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4066,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4105,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4144,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4183,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4222,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4261,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4300,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4339,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4378,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4417,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4456,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4495,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4534,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4573,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4612,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4651,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4690,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4729,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4768,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4807,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4846,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4885,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4924,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4963,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5002,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5041,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5080,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5119,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4931,14 +5151,20 @@
         <v>24.40000000000002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,12 +5198,12 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5013,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
@@ -5095,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
@@ -5136,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
@@ -5218,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
@@ -5259,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
@@ -5294,14 +5520,12 @@
         <v>24.50000000000003</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5335,14 +5559,12 @@
         <v>24.40000000000003</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5376,14 +5598,12 @@
         <v>24.30000000000003</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5417,14 +5637,12 @@
         <v>24.45000000000002</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5458,14 +5676,12 @@
         <v>24.50000000000002</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5499,14 +5715,12 @@
         <v>24.50000000000003</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5540,14 +5754,12 @@
         <v>24.55000000000003</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5581,14 +5793,12 @@
         <v>24.45000000000002</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5622,14 +5832,12 @@
         <v>24.30000000000002</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5663,14 +5871,12 @@
         <v>24.45000000000002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5704,14 +5910,12 @@
         <v>24.65000000000003</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5745,14 +5949,12 @@
         <v>24.70000000000003</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5786,14 +5988,12 @@
         <v>24.70000000000002</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>24.7</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5827,14 +6027,12 @@
         <v>24.70000000000002</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5868,14 +6066,12 @@
         <v>24.65000000000003</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5909,14 +6105,12 @@
         <v>24.60000000000003</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5950,14 +6144,12 @@
         <v>24.75000000000002</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5991,14 +6183,12 @@
         <v>24.90000000000002</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>24.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6032,14 +6222,12 @@
         <v>24.55000000000002</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6073,14 +6261,12 @@
         <v>24.40000000000002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6114,14 +6300,12 @@
         <v>24.40000000000002</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6155,14 +6339,12 @@
         <v>24.30000000000002</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6196,14 +6378,12 @@
         <v>24.35000000000002</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6237,14 +6417,12 @@
         <v>24.55000000000002</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6278,14 +6456,12 @@
         <v>24.55000000000003</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6319,14 +6495,12 @@
         <v>24.55000000000003</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6360,14 +6534,12 @@
         <v>24.75000000000003</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6401,14 +6573,12 @@
         <v>24.50000000000003</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6442,14 +6612,12 @@
         <v>24.35000000000003</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6483,14 +6651,12 @@
         <v>24.40000000000003</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6524,14 +6690,12 @@
         <v>24.60000000000003</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6565,14 +6729,12 @@
         <v>24.80000000000003</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>24.8</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6606,14 +6768,12 @@
         <v>24.85000000000003</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>24.8</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6647,14 +6807,12 @@
         <v>25.45000000000003</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>25</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6688,14 +6846,12 @@
         <v>26.00000000000003</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6729,14 +6885,12 @@
         <v>26.00000000000003</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>

--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>25.2</v>
       </c>
       <c r="F2" t="n">
-        <v>6521.0372</v>
+        <v>29861.9842</v>
       </c>
       <c r="G2" t="n">
-        <v>25.20000000000001</v>
+        <v>24.46000000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>25.2</v>
       </c>
       <c r="F3" t="n">
-        <v>3440.8307</v>
+        <v>6521.0372</v>
       </c>
       <c r="G3" t="n">
-        <v>25.20000000000001</v>
+        <v>24.4816666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>25.2</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E4" t="n">
         <v>25.2</v>
       </c>
       <c r="F4" t="n">
-        <v>21537.6207</v>
+        <v>3440.8307</v>
       </c>
       <c r="G4" t="n">
-        <v>25.25000000000001</v>
+        <v>24.50333333333337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C5" t="n">
         <v>25.3</v>
@@ -547,13 +547,13 @@
         <v>25.3</v>
       </c>
       <c r="E5" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F5" t="n">
-        <v>4942.0381</v>
+        <v>21537.6207</v>
       </c>
       <c r="G5" t="n">
-        <v>25.3</v>
+        <v>24.5266666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,19 +585,23 @@
         <v>25.3</v>
       </c>
       <c r="F6" t="n">
-        <v>49736.0996</v>
+        <v>4942.0381</v>
       </c>
       <c r="G6" t="n">
+        <v>24.55000000000003</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>25.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -608,32 +612,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C7" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D7" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E7" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2651.4488</v>
+        <v>49736.0996</v>
       </c>
       <c r="G7" t="n">
-        <v>25.25000000000001</v>
+        <v>24.57333333333336</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -655,20 +667,28 @@
         <v>25.2</v>
       </c>
       <c r="F8" t="n">
-        <v>2669.0557</v>
+        <v>2651.4488</v>
       </c>
       <c r="G8" t="n">
-        <v>25.20000000000001</v>
+        <v>24.59500000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +698,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D9" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E9" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F9" t="n">
-        <v>17763.1107</v>
+        <v>2669.0557</v>
       </c>
       <c r="G9" t="n">
-        <v>25.25000000000001</v>
+        <v>24.61666666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +733,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F10" t="n">
-        <v>10538.4376</v>
+        <v>17763.1107</v>
       </c>
       <c r="G10" t="n">
-        <v>25.35</v>
+        <v>24.64000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D11" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E11" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F11" t="n">
-        <v>183.1635</v>
+        <v>10538.4376</v>
       </c>
       <c r="G11" t="n">
-        <v>25.45</v>
+        <v>24.66500000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +815,10 @@
         <v>25.5</v>
       </c>
       <c r="F12" t="n">
-        <v>91538.46120000001</v>
+        <v>183.1635</v>
       </c>
       <c r="G12" t="n">
-        <v>25.5</v>
+        <v>24.69166666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E13" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F13" t="n">
-        <v>4961.1045</v>
+        <v>91538.46120000001</v>
       </c>
       <c r="G13" t="n">
-        <v>25.55</v>
+        <v>24.71833333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +885,10 @@
         <v>25.6</v>
       </c>
       <c r="F14" t="n">
-        <v>19175.2072</v>
+        <v>4961.1045</v>
       </c>
       <c r="G14" t="n">
-        <v>25.60000000000001</v>
+        <v>24.74666666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +920,10 @@
         <v>25.6</v>
       </c>
       <c r="F15" t="n">
-        <v>46.1226</v>
+        <v>19175.2072</v>
       </c>
       <c r="G15" t="n">
-        <v>25.6</v>
+        <v>24.77500000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +955,10 @@
         <v>25.6</v>
       </c>
       <c r="F16" t="n">
-        <v>139.3661</v>
+        <v>46.1226</v>
       </c>
       <c r="G16" t="n">
-        <v>25.6</v>
+        <v>24.80333333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +990,10 @@
         <v>25.6</v>
       </c>
       <c r="F17" t="n">
-        <v>445.5373</v>
+        <v>139.3661</v>
       </c>
       <c r="G17" t="n">
-        <v>25.6</v>
+        <v>24.82833333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1013,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C18" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D18" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E18" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F18" t="n">
-        <v>11129.602</v>
+        <v>445.5373</v>
       </c>
       <c r="G18" t="n">
-        <v>25.70000000000001</v>
+        <v>24.85333333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1048,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="E19" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F19" t="n">
-        <v>29024.3523</v>
+        <v>11129.602</v>
       </c>
       <c r="G19" t="n">
-        <v>25.9</v>
+        <v>24.88000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C20" t="n">
         <v>26</v>
@@ -1072,13 +1092,13 @@
         <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F20" t="n">
-        <v>3301.5039</v>
+        <v>29024.3523</v>
       </c>
       <c r="G20" t="n">
-        <v>26.00000000000001</v>
+        <v>24.91000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1130,10 @@
         <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>68348.3931</v>
+        <v>3301.5039</v>
       </c>
       <c r="G21" t="n">
-        <v>26.00000000000001</v>
+        <v>24.93666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1153,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>10543.7349</v>
+        <v>68348.3931</v>
       </c>
       <c r="G22" t="n">
-        <v>26.10000000000001</v>
+        <v>24.96333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1188,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C23" t="n">
         <v>26.2</v>
@@ -1177,13 +1197,13 @@
         <v>26.2</v>
       </c>
       <c r="E23" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F23" t="n">
-        <v>747.3576</v>
+        <v>10543.7349</v>
       </c>
       <c r="G23" t="n">
-        <v>26.20000000000001</v>
+        <v>24.99500000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1226,19 @@
         <v>26.2</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D24" t="n">
         <v>26.2</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F24" t="n">
-        <v>23737.9035</v>
+        <v>747.3576</v>
       </c>
       <c r="G24" t="n">
-        <v>26.10000000000001</v>
+        <v>25.02500000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1258,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="C25" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="E25" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>41272.4477</v>
+        <v>23737.9035</v>
       </c>
       <c r="G25" t="n">
-        <v>25.8</v>
+        <v>25.05166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1293,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C26" t="n">
         <v>25.6</v>
       </c>
-      <c r="C26" t="n">
-        <v>25.2</v>
-      </c>
       <c r="D26" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E26" t="n">
         <v>25.6</v>
       </c>
-      <c r="E26" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F26" t="n">
-        <v>51948.7661</v>
+        <v>41272.4477</v>
       </c>
       <c r="G26" t="n">
-        <v>25.40000000000001</v>
+        <v>25.07166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1328,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="D27" t="n">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="F27" t="n">
-        <v>63035.8921</v>
+        <v>51948.7661</v>
       </c>
       <c r="G27" t="n">
-        <v>25.1</v>
+        <v>25.08333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1363,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C28" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E28" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>33622.6674</v>
+        <v>63035.8921</v>
       </c>
       <c r="G28" t="n">
-        <v>25.2</v>
+        <v>25.09166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1398,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C29" t="n">
         <v>25.4</v>
@@ -1387,13 +1407,13 @@
         <v>25.4</v>
       </c>
       <c r="E29" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="F29" t="n">
-        <v>33190.6886</v>
+        <v>33622.6674</v>
       </c>
       <c r="G29" t="n">
-        <v>25.40000000000001</v>
+        <v>25.10666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1433,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C30" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="D30" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="E30" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="F30" t="n">
-        <v>398.4314</v>
+        <v>33190.6886</v>
       </c>
       <c r="G30" t="n">
-        <v>25.55000000000001</v>
+        <v>25.12333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1468,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="D31" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F31" t="n">
-        <v>7868.5419</v>
+        <v>398.4314</v>
       </c>
       <c r="G31" t="n">
-        <v>25.85000000000001</v>
+        <v>25.14</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1503,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C32" t="n">
         <v>26</v>
       </c>
-      <c r="C32" t="n">
-        <v>26.3</v>
-      </c>
       <c r="D32" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E32" t="n">
         <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>81435.2694</v>
+        <v>7868.5419</v>
       </c>
       <c r="G32" t="n">
-        <v>26.15000000000001</v>
+        <v>25.16166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1538,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>26</v>
+      </c>
+      <c r="C33" t="n">
         <v>26.3</v>
       </c>
-      <c r="C33" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D33" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="E33" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>145965.41672022</v>
+        <v>81435.2694</v>
       </c>
       <c r="G33" t="n">
-        <v>26.50000000000001</v>
+        <v>25.18833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="C34" t="n">
         <v>26.7</v>
@@ -1562,13 +1582,13 @@
         <v>26.7</v>
       </c>
       <c r="E34" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="F34" t="n">
-        <v>181032.07827978</v>
+        <v>145965.41672022</v>
       </c>
       <c r="G34" t="n">
-        <v>26.70000000000002</v>
+        <v>25.22166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1608,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C35" t="n">
         <v>26.7</v>
       </c>
       <c r="D35" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E35" t="n">
         <v>26.7</v>
       </c>
       <c r="F35" t="n">
-        <v>185338.0018</v>
+        <v>181032.07827978</v>
       </c>
       <c r="G35" t="n">
-        <v>26.70000000000002</v>
+        <v>25.25666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,28 +1643,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C36" t="n">
         <v>26.7</v>
       </c>
-      <c r="C36" t="n">
-        <v>27.5</v>
-      </c>
       <c r="D36" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="E36" t="n">
         <v>26.7</v>
       </c>
       <c r="F36" t="n">
-        <v>159697.5467</v>
+        <v>185338.0018</v>
       </c>
       <c r="G36" t="n">
-        <v>27.10000000000002</v>
+        <v>25.29500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1658,28 +1678,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="C37" t="n">
         <v>27.5</v>
       </c>
       <c r="D37" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E37" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="F37" t="n">
-        <v>148994.0558</v>
+        <v>159697.5467</v>
       </c>
       <c r="G37" t="n">
-        <v>27.50000000000001</v>
+        <v>25.33666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1693,28 +1713,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C38" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D38" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E38" t="n">
         <v>27.2</v>
       </c>
       <c r="F38" t="n">
-        <v>678916.3851</v>
+        <v>148994.0558</v>
       </c>
       <c r="G38" t="n">
-        <v>27.35000000000002</v>
+        <v>25.38666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1728,28 +1748,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="C39" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D39" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E39" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="F39" t="n">
-        <v>8485.1957</v>
+        <v>678916.3851</v>
       </c>
       <c r="G39" t="n">
-        <v>27.15000000000002</v>
+        <v>25.43000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,28 +1783,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C40" t="n">
         <v>27.1</v>
       </c>
-      <c r="C40" t="n">
-        <v>28</v>
-      </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="E40" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F40" t="n">
-        <v>573519.1299000001</v>
+        <v>8485.1957</v>
       </c>
       <c r="G40" t="n">
-        <v>27.55000000000002</v>
+        <v>25.46833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="C41" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="F41" t="n">
-        <v>912510.1451</v>
+        <v>573519.1299000001</v>
       </c>
       <c r="G41" t="n">
-        <v>28.75000000000002</v>
+        <v>25.52333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C42" t="n">
         <v>29.5</v>
       </c>
-      <c r="C42" t="n">
-        <v>29.2</v>
-      </c>
       <c r="D42" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="E42" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>216772.9619</v>
+        <v>912510.1451</v>
       </c>
       <c r="G42" t="n">
-        <v>29.35000000000002</v>
+        <v>25.61333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,28 +1888,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C43" t="n">
         <v>29.2</v>
       </c>
-      <c r="C43" t="n">
-        <v>29.7</v>
-      </c>
       <c r="D43" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E43" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="F43" t="n">
-        <v>70769.18640000001</v>
+        <v>216772.9619</v>
       </c>
       <c r="G43" t="n">
-        <v>29.45000000000002</v>
+        <v>25.68833333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1903,28 +1923,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C44" t="n">
-        <v>28.9</v>
+        <v>29.7</v>
       </c>
       <c r="D44" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E44" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F44" t="n">
-        <v>340732.1396</v>
+        <v>70769.18640000001</v>
       </c>
       <c r="G44" t="n">
-        <v>29.30000000000002</v>
+        <v>25.77666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,28 +1958,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C45" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="D45" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E45" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F45" t="n">
-        <v>219625.3046</v>
+        <v>340732.1396</v>
       </c>
       <c r="G45" t="n">
-        <v>29.30000000000002</v>
+        <v>25.85333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1973,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="C46" t="n">
         <v>29.7</v>
       </c>
       <c r="D46" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E46" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F46" t="n">
-        <v>116902.2981</v>
+        <v>219625.3046</v>
       </c>
       <c r="G46" t="n">
-        <v>29.70000000000002</v>
+        <v>25.94500000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C47" t="n">
         <v>29.7</v>
       </c>
-      <c r="C47" t="n">
-        <v>29.2</v>
-      </c>
       <c r="D47" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E47" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F47" t="n">
-        <v>438789.66372067</v>
+        <v>116902.2981</v>
       </c>
       <c r="G47" t="n">
-        <v>29.45000000000002</v>
+        <v>26.02833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C48" t="n">
         <v>29.2</v>
       </c>
-      <c r="C48" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D48" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E48" t="n">
-        <v>26.2</v>
+        <v>28.9</v>
       </c>
       <c r="F48" t="n">
-        <v>90022.57327009999</v>
+        <v>438789.66372067</v>
       </c>
       <c r="G48" t="n">
-        <v>27.70000000000002</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.3</v>
+        <v>29.2</v>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="D49" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E49" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>27650.2863</v>
+        <v>90022.57327009999</v>
       </c>
       <c r="G49" t="n">
-        <v>26.60000000000002</v>
+        <v>26.13500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="C50" t="n">
-        <v>28.1</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E50" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="F50" t="n">
-        <v>266404.03571869</v>
+        <v>27650.2863</v>
       </c>
       <c r="G50" t="n">
-        <v>27.55000000000002</v>
+        <v>26.17500000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C51" t="n">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="D51" t="n">
-        <v>27</v>
+        <v>28.7</v>
       </c>
       <c r="E51" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F51" t="n">
-        <v>90159.57074369</v>
+        <v>266404.03571869</v>
       </c>
       <c r="G51" t="n">
-        <v>27.35000000000002</v>
+        <v>26.23000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2203,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>27</v>
+      </c>
+      <c r="C52" t="n">
         <v>26.6</v>
-      </c>
-      <c r="C52" t="n">
-        <v>26.4</v>
       </c>
       <c r="D52" t="n">
         <v>27</v>
       </c>
       <c r="E52" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F52" t="n">
-        <v>514484.3965</v>
+        <v>90159.57074369</v>
       </c>
       <c r="G52" t="n">
-        <v>26.50000000000002</v>
+        <v>26.26000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2238,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C53" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D53" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E53" t="n">
         <v>26.2</v>
       </c>
       <c r="F53" t="n">
-        <v>138500.7482</v>
+        <v>514484.3965</v>
       </c>
       <c r="G53" t="n">
-        <v>26.30000000000002</v>
+        <v>26.28666666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C54" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D54" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E54" t="n">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="F54" t="n">
-        <v>156351.89079433</v>
+        <v>138500.7482</v>
       </c>
       <c r="G54" t="n">
-        <v>26.15000000000002</v>
+        <v>26.31000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="C55" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="D55" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E55" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F55" t="n">
-        <v>31207.7114</v>
+        <v>156351.89079433</v>
       </c>
       <c r="G55" t="n">
-        <v>25.75000000000002</v>
+        <v>26.33000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2343,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>26</v>
+      </c>
+      <c r="C56" t="n">
         <v>25.4</v>
       </c>
-      <c r="C56" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D56" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E56" t="n">
         <v>25.4</v>
       </c>
       <c r="F56" t="n">
-        <v>258955.8512</v>
+        <v>31207.7114</v>
       </c>
       <c r="G56" t="n">
-        <v>25.65000000000002</v>
+        <v>26.33666666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2378,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D57" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E57" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="F57" t="n">
-        <v>30841.503</v>
+        <v>258955.8512</v>
       </c>
       <c r="G57" t="n">
-        <v>25.95000000000002</v>
+        <v>26.35166666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C58" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D58" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E58" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F58" t="n">
-        <v>70672.8241</v>
+        <v>30841.503</v>
       </c>
       <c r="G58" t="n">
-        <v>26.05000000000002</v>
+        <v>26.36166666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C59" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="D59" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E59" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F59" t="n">
-        <v>32278.0868</v>
+        <v>70672.8241</v>
       </c>
       <c r="G59" t="n">
-        <v>25.95000000000002</v>
+        <v>26.37333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2495,10 @@
         <v>25.8</v>
       </c>
       <c r="F60" t="n">
-        <v>361.0692</v>
+        <v>32278.0868</v>
       </c>
       <c r="G60" t="n">
-        <v>25.80000000000002</v>
+        <v>26.38000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>26</v>
+      </c>
+      <c r="C61" t="n">
         <v>25.8</v>
       </c>
-      <c r="C61" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D61" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E61" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="F61" t="n">
-        <v>179223.5097</v>
+        <v>361.0692</v>
       </c>
       <c r="G61" t="n">
-        <v>25.85000000000002</v>
+        <v>26.38833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2553,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C62" t="n">
         <v>25.9</v>
       </c>
-      <c r="C62" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D62" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E62" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="F62" t="n">
-        <v>132014.4584</v>
+        <v>179223.5097</v>
       </c>
       <c r="G62" t="n">
-        <v>26.05000000000003</v>
+        <v>26.40000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2588,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C63" t="n">
         <v>26.2</v>
@@ -2577,13 +2597,13 @@
         <v>26.2</v>
       </c>
       <c r="E63" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F63" t="n">
-        <v>7276.9443</v>
+        <v>132014.4584</v>
       </c>
       <c r="G63" t="n">
-        <v>26.20000000000003</v>
+        <v>26.41666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E64" t="n">
         <v>26</v>
       </c>
-      <c r="C64" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>26</v>
-      </c>
-      <c r="E64" t="n">
-        <v>25.8</v>
-      </c>
       <c r="F64" t="n">
-        <v>21384.0139</v>
+        <v>7276.9443</v>
       </c>
       <c r="G64" t="n">
-        <v>26.00000000000003</v>
+        <v>26.43333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>21384.0139</v>
       </c>
       <c r="G65" t="n">
-        <v>26.00000000000003</v>
+        <v>26.44166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
       <c r="C66" t="n">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="D66" t="n">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
       <c r="E66" t="n">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="F66" t="n">
-        <v>18006.5627</v>
+        <v>22</v>
       </c>
       <c r="G66" t="n">
-        <v>25.90000000000003</v>
+        <v>26.45666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2740,10 @@
         <v>25.6</v>
       </c>
       <c r="F67" t="n">
-        <v>23505.5154</v>
+        <v>18006.5627</v>
       </c>
       <c r="G67" t="n">
-        <v>25.60000000000003</v>
+        <v>26.46166666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="D68" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E68" t="n">
         <v>25.6</v>
       </c>
-      <c r="E68" t="n">
-        <v>25</v>
-      </c>
       <c r="F68" t="n">
-        <v>397610.6667</v>
+        <v>23505.5154</v>
       </c>
       <c r="G68" t="n">
-        <v>25.30000000000003</v>
+        <v>26.46833333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2798,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" t="n">
         <v>25.6</v>
       </c>
-      <c r="C69" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>25.7</v>
-      </c>
       <c r="E69" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>51056.6003</v>
+        <v>397610.6667</v>
       </c>
       <c r="G69" t="n">
-        <v>25.20000000000003</v>
+        <v>26.46500000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C70" t="n">
         <v>25.4</v>
       </c>
-      <c r="C70" t="n">
-        <v>26.1</v>
-      </c>
       <c r="D70" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="E70" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>51056.6003</v>
       </c>
       <c r="G70" t="n">
-        <v>25.75000000000003</v>
+        <v>26.46666666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2868,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="C71" t="n">
-        <v>25.3</v>
+        <v>26.1</v>
       </c>
       <c r="D71" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="E71" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="F71" t="n">
-        <v>196192.0317</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>25.70000000000003</v>
+        <v>26.47833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2903,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C72" t="n">
         <v>25.3</v>
       </c>
-      <c r="C72" t="n">
-        <v>25</v>
-      </c>
       <c r="D72" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="F72" t="n">
-        <v>83336.4354</v>
+        <v>196192.0317</v>
       </c>
       <c r="G72" t="n">
-        <v>25.15000000000003</v>
+        <v>26.475</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2938,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C73" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E73" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F73" t="n">
-        <v>23</v>
+        <v>83336.4354</v>
       </c>
       <c r="G73" t="n">
-        <v>25.10000000000003</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2973,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="C74" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="D74" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="E74" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="F74" t="n">
-        <v>106247.22667959</v>
+        <v>23</v>
       </c>
       <c r="G74" t="n">
-        <v>25.00000000000003</v>
+        <v>26.46</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3008,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C75" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D75" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E75" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F75" t="n">
-        <v>475894.7666</v>
+        <v>106247.22667959</v>
       </c>
       <c r="G75" t="n">
-        <v>24.75000000000003</v>
+        <v>26.44666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3043,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C76" t="n">
         <v>24.7</v>
       </c>
-      <c r="C76" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D76" t="n">
-        <v>26.2</v>
+        <v>24.9</v>
       </c>
       <c r="E76" t="n">
         <v>24.7</v>
       </c>
       <c r="F76" t="n">
-        <v>202043.9623</v>
+        <v>475894.7666</v>
       </c>
       <c r="G76" t="n">
-        <v>25.45000000000003</v>
+        <v>26.43166666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,38 +3078,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="C77" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D77" t="n">
         <v>26.2</v>
       </c>
       <c r="E77" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="F77" t="n">
-        <v>206019.9384</v>
+        <v>202043.9623</v>
       </c>
       <c r="G77" t="n">
-        <v>26.05000000000003</v>
+        <v>26.44166666666668</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3099,38 +3113,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="C78" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="D78" t="n">
-        <v>25.4</v>
+        <v>26.2</v>
       </c>
       <c r="E78" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="F78" t="n">
-        <v>15437.87</v>
+        <v>206019.9384</v>
       </c>
       <c r="G78" t="n">
-        <v>25.65000000000003</v>
+        <v>26.44666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C79" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D79" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="E79" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F79" t="n">
-        <v>239327.512</v>
+        <v>15437.87</v>
       </c>
       <c r="G79" t="n">
-        <v>25.50000000000003</v>
+        <v>26.44000000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3165,11 +3173,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C80" t="n">
         <v>25.6</v>
@@ -3188,13 +3192,13 @@
         <v>25.6</v>
       </c>
       <c r="E80" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F80" t="n">
-        <v>255.4018</v>
+        <v>239327.512</v>
       </c>
       <c r="G80" t="n">
-        <v>25.60000000000003</v>
+        <v>26.43333333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3204,11 +3208,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3218,38 +3218,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="C81" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D81" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E81" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="F81" t="n">
-        <v>23</v>
+        <v>255.4018</v>
       </c>
       <c r="G81" t="n">
-        <v>25.55000000000004</v>
+        <v>26.42666666666668</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3262,35 +3256,29 @@
         <v>25.5</v>
       </c>
       <c r="C82" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D82" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E82" t="n">
         <v>25.5</v>
       </c>
       <c r="F82" t="n">
-        <v>37775.8129</v>
+        <v>23</v>
       </c>
       <c r="G82" t="n">
-        <v>25.65000000000004</v>
+        <v>26.41833333333335</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3300,22 +3288,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C83" t="n">
         <v>25.8</v>
       </c>
-      <c r="C83" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D83" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E83" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F83" t="n">
-        <v>793.65</v>
+        <v>37775.8129</v>
       </c>
       <c r="G83" t="n">
-        <v>26.00000000000004</v>
+        <v>26.41166666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3325,11 +3313,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3339,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C84" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D84" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E84" t="n">
         <v>25.8</v>
       </c>
       <c r="F84" t="n">
-        <v>27492.6885</v>
+        <v>793.65</v>
       </c>
       <c r="G84" t="n">
-        <v>26.00000000000004</v>
+        <v>26.41166666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3364,11 +3348,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3378,22 +3358,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="D85" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E85" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="F85" t="n">
-        <v>1776.4971</v>
+        <v>27492.6885</v>
       </c>
       <c r="G85" t="n">
-        <v>25.65000000000003</v>
+        <v>26.40833333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3403,11 +3383,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3417,22 +3393,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="C86" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="D86" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="E86" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F86" t="n">
-        <v>532.4032</v>
+        <v>1776.4971</v>
       </c>
       <c r="G86" t="n">
-        <v>25.70000000000004</v>
+        <v>26.40666666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3442,11 +3418,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3456,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C87" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D87" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E87" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="F87" t="n">
-        <v>31072.5782</v>
+        <v>532.4032</v>
       </c>
       <c r="G87" t="n">
-        <v>25.70000000000004</v>
+        <v>26.41833333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3481,11 +3453,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3495,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C88" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D88" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E88" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F88" t="n">
-        <v>781.25</v>
+        <v>31072.5782</v>
       </c>
       <c r="G88" t="n">
-        <v>25.55000000000004</v>
+        <v>26.42666666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3520,11 +3488,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C89" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D89" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E89" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F89" t="n">
-        <v>223</v>
+        <v>781.25</v>
       </c>
       <c r="G89" t="n">
-        <v>25.70000000000005</v>
+        <v>26.43000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3559,11 +3523,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3573,22 +3533,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="C90" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="D90" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="E90" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="F90" t="n">
-        <v>4978.475</v>
+        <v>223</v>
       </c>
       <c r="G90" t="n">
-        <v>25.65000000000004</v>
+        <v>26.43666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3598,11 +3558,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3612,22 +3568,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C91" t="n">
         <v>25.5</v>
       </c>
       <c r="D91" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="E91" t="n">
         <v>25.5</v>
       </c>
       <c r="F91" t="n">
-        <v>9404.856</v>
+        <v>4978.475</v>
       </c>
       <c r="G91" t="n">
-        <v>25.50000000000005</v>
+        <v>26.43333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3637,11 +3593,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3651,22 +3603,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C92" t="n">
         <v>25.5</v>
       </c>
-      <c r="C92" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D92" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E92" t="n">
         <v>25.5</v>
       </c>
-      <c r="E92" t="n">
-        <v>25.4</v>
-      </c>
       <c r="F92" t="n">
-        <v>11078.3172</v>
+        <v>9404.856</v>
       </c>
       <c r="G92" t="n">
-        <v>25.45000000000005</v>
+        <v>26.42500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3676,11 +3628,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3690,22 +3638,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="C93" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="D93" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E93" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F93" t="n">
-        <v>18069.1138</v>
+        <v>11078.3172</v>
       </c>
       <c r="G93" t="n">
-        <v>25.55000000000005</v>
+        <v>26.41000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3715,11 +3663,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3729,22 +3673,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C94" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="D94" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="E94" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F94" t="n">
-        <v>14856.3652</v>
+        <v>18069.1138</v>
       </c>
       <c r="G94" t="n">
-        <v>25.55000000000004</v>
+        <v>26.39333333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3754,11 +3698,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3774,16 +3714,16 @@
         <v>25.4</v>
       </c>
       <c r="D95" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="E95" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F95" t="n">
-        <v>148516.9097</v>
+        <v>14856.3652</v>
       </c>
       <c r="G95" t="n">
-        <v>25.40000000000004</v>
+        <v>26.37166666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3793,11 +3733,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3807,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C96" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="D96" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E96" t="n">
         <v>25.3</v>
       </c>
       <c r="F96" t="n">
-        <v>102276.733</v>
+        <v>148516.9097</v>
       </c>
       <c r="G96" t="n">
-        <v>25.60000000000004</v>
+        <v>26.35000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3832,11 +3768,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3846,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C97" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="D97" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="E97" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="F97" t="n">
-        <v>7862.3051</v>
+        <v>102276.733</v>
       </c>
       <c r="G97" t="n">
-        <v>25.65000000000004</v>
+        <v>26.32166666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3871,11 +3803,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3885,22 +3813,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C98" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D98" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E98" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="F98" t="n">
-        <v>55030.5235</v>
+        <v>7862.3051</v>
       </c>
       <c r="G98" t="n">
-        <v>25.55000000000004</v>
+        <v>26.28833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3910,11 +3838,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C99" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="D99" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E99" t="n">
         <v>25.3</v>
       </c>
       <c r="F99" t="n">
-        <v>122673.7346</v>
+        <v>55030.5235</v>
       </c>
       <c r="G99" t="n">
-        <v>25.45000000000004</v>
+        <v>26.26166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3949,11 +3873,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3963,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="C100" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D100" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E100" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="F100" t="n">
-        <v>16576.6348</v>
+        <v>122673.7346</v>
       </c>
       <c r="G100" t="n">
-        <v>25.15000000000004</v>
+        <v>26.23166666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3988,11 +3908,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4002,7 +3918,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
         <v>25</v>
@@ -4011,13 +3927,13 @@
         <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F101" t="n">
-        <v>88318.6599</v>
+        <v>16576.6348</v>
       </c>
       <c r="G101" t="n">
-        <v>25.00000000000004</v>
+        <v>26.18166666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4027,11 +3943,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4041,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C102" t="n">
         <v>25</v>
       </c>
-      <c r="C102" t="n">
-        <v>25.6</v>
-      </c>
       <c r="D102" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="E102" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F102" t="n">
-        <v>19218.1307</v>
+        <v>88318.6599</v>
       </c>
       <c r="G102" t="n">
-        <v>25.30000000000004</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4066,11 +3978,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4080,22 +3988,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C103" t="n">
-        <v>24.7</v>
+        <v>25.6</v>
       </c>
       <c r="D103" t="n">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="E103" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="F103" t="n">
-        <v>81914.76029999999</v>
+        <v>19218.1307</v>
       </c>
       <c r="G103" t="n">
-        <v>25.15000000000004</v>
+        <v>26.04666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4105,11 +4013,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4119,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C104" t="n">
         <v>24.7</v>
       </c>
       <c r="D104" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E104" t="n">
         <v>24.7</v>
       </c>
       <c r="F104" t="n">
-        <v>21725.8423</v>
+        <v>81914.76029999999</v>
       </c>
       <c r="G104" t="n">
-        <v>24.70000000000004</v>
+        <v>25.96333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4144,11 +4048,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4158,22 +4058,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C105" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="D105" t="n">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="E105" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="F105" t="n">
-        <v>81</v>
+        <v>21725.8423</v>
       </c>
       <c r="G105" t="n">
-        <v>25.00000000000004</v>
+        <v>25.89333333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4183,11 +4083,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4197,22 +4093,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C106" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D106" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="E106" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F106" t="n">
-        <v>7325.8198</v>
+        <v>81</v>
       </c>
       <c r="G106" t="n">
-        <v>25.15000000000004</v>
+        <v>25.82</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4222,11 +4118,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +4128,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C107" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E107" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F107" t="n">
-        <v>7128.2204</v>
+        <v>7325.8198</v>
       </c>
       <c r="G107" t="n">
-        <v>25.25000000000004</v>
+        <v>25.74166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4261,11 +4153,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4275,22 +4163,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C108" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="D108" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F108" t="n">
-        <v>41463.4141</v>
+        <v>7128.2204</v>
       </c>
       <c r="G108" t="n">
-        <v>25.30000000000004</v>
+        <v>25.68</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4300,11 +4188,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4317,19 +4201,19 @@
         <v>25</v>
       </c>
       <c r="C109" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="D109" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="E109" t="n">
         <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>9526.661</v>
+        <v>41463.4141</v>
       </c>
       <c r="G109" t="n">
-        <v>25.30000000000004</v>
+        <v>25.66166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4339,11 +4223,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4356,19 +4236,19 @@
         <v>25</v>
       </c>
       <c r="C110" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="D110" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E110" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>19018.1324</v>
+        <v>9526.661</v>
       </c>
       <c r="G110" t="n">
-        <v>25.20000000000004</v>
+        <v>25.63666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4378,11 +4258,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4395,19 +4271,19 @@
         <v>25</v>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D111" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E111" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F111" t="n">
-        <v>23</v>
+        <v>19018.1324</v>
       </c>
       <c r="G111" t="n">
-        <v>24.95000000000005</v>
+        <v>25.58333333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4417,11 +4293,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4431,22 +4303,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>597.9876</v>
+        <v>23</v>
       </c>
       <c r="G112" t="n">
-        <v>24.95000000000005</v>
+        <v>25.55666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4456,11 +4328,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4338,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C113" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E113" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F113" t="n">
-        <v>2009.7177</v>
+        <v>597.9876</v>
       </c>
       <c r="G113" t="n">
-        <v>24.95000000000005</v>
+        <v>25.53166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4495,11 +4363,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4512,19 +4376,19 @@
         <v>25</v>
       </c>
       <c r="C114" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E114" t="n">
         <v>25</v>
       </c>
       <c r="F114" t="n">
-        <v>65087.7544</v>
+        <v>2009.7177</v>
       </c>
       <c r="G114" t="n">
-        <v>25.05000000000004</v>
+        <v>25.51166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4534,11 +4398,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4548,22 +4408,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="C115" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D115" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E115" t="n">
         <v>25</v>
       </c>
       <c r="F115" t="n">
-        <v>48321.8863</v>
+        <v>65087.7544</v>
       </c>
       <c r="G115" t="n">
-        <v>25.05000000000004</v>
+        <v>25.495</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4573,11 +4433,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4587,22 +4443,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C116" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="E116" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F116" t="n">
-        <v>12904.3864</v>
+        <v>48321.8863</v>
       </c>
       <c r="G116" t="n">
-        <v>25.05000000000004</v>
+        <v>25.48833333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4612,11 +4468,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4626,22 +4478,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C117" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="D117" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E117" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="F117" t="n">
-        <v>4749.7583</v>
+        <v>12904.3864</v>
       </c>
       <c r="G117" t="n">
-        <v>25.00000000000004</v>
+        <v>25.475</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4651,11 +4503,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4677,10 +4525,10 @@
         <v>24.9</v>
       </c>
       <c r="F118" t="n">
-        <v>1683.5135</v>
+        <v>4749.7583</v>
       </c>
       <c r="G118" t="n">
-        <v>24.90000000000003</v>
+        <v>25.45666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4690,11 +4538,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4707,19 +4551,19 @@
         <v>24.9</v>
       </c>
       <c r="C119" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="D119" t="n">
         <v>24.9</v>
       </c>
       <c r="E119" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F119" t="n">
-        <v>31361.7648</v>
+        <v>1683.5135</v>
       </c>
       <c r="G119" t="n">
-        <v>24.75000000000003</v>
+        <v>25.43666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4729,11 +4573,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4743,22 +4583,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C120" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D120" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="F120" t="n">
-        <v>23</v>
+        <v>31361.7648</v>
       </c>
       <c r="G120" t="n">
-        <v>24.80000000000003</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4768,11 +4608,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4782,22 +4618,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="C121" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F121" t="n">
-        <v>184935.5394</v>
+        <v>23</v>
       </c>
       <c r="G121" t="n">
-        <v>24.75000000000002</v>
+        <v>25.40333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4807,11 +4643,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4821,22 +4653,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C122" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D122" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E122" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F122" t="n">
-        <v>691</v>
+        <v>184935.5394</v>
       </c>
       <c r="G122" t="n">
-        <v>24.45000000000002</v>
+        <v>25.38</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4846,11 +4678,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +4688,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C123" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D123" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E123" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="F123" t="n">
-        <v>16042.8554</v>
+        <v>691</v>
       </c>
       <c r="G123" t="n">
-        <v>24.30000000000003</v>
+        <v>25.35</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4885,11 +4713,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4899,22 +4723,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C124" t="n">
         <v>24.2</v>
       </c>
-      <c r="C124" t="n">
-        <v>24.4</v>
-      </c>
       <c r="D124" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E124" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="F124" t="n">
-        <v>74468.2896</v>
+        <v>16042.8554</v>
       </c>
       <c r="G124" t="n">
-        <v>24.30000000000003</v>
+        <v>25.31666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4924,11 +4748,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +4758,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C125" t="n">
         <v>24.4</v>
@@ -4947,13 +4767,13 @@
         <v>24.4</v>
       </c>
       <c r="E125" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F125" t="n">
-        <v>11271.8932</v>
+        <v>74468.2896</v>
       </c>
       <c r="G125" t="n">
-        <v>24.40000000000003</v>
+        <v>25.29333333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4963,11 +4783,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4977,22 +4793,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C126" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D126" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E126" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F126" t="n">
-        <v>13898.9998</v>
+        <v>11271.8932</v>
       </c>
       <c r="G126" t="n">
-        <v>24.45000000000003</v>
+        <v>25.26333333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5002,11 +4818,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5016,22 +4828,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C127" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D127" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="E127" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F127" t="n">
-        <v>4627.812</v>
+        <v>13898.9998</v>
       </c>
       <c r="G127" t="n">
-        <v>24.45000000000003</v>
+        <v>25.24500000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5041,11 +4853,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5055,22 +4863,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C128" t="n">
         <v>24.4</v>
       </c>
       <c r="D128" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E128" t="n">
         <v>24.4</v>
       </c>
-      <c r="E128" t="n">
-        <v>24.2</v>
-      </c>
       <c r="F128" t="n">
-        <v>91682.7742</v>
+        <v>4627.812</v>
       </c>
       <c r="G128" t="n">
-        <v>24.40000000000003</v>
+        <v>25.22500000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5080,11 +4888,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5103,13 +4907,13 @@
         <v>24.4</v>
       </c>
       <c r="E129" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>91682.7742</v>
       </c>
       <c r="G129" t="n">
-        <v>24.40000000000002</v>
+        <v>25.21500000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5119,11 +4923,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5145,26 +4945,20 @@
         <v>24.4</v>
       </c>
       <c r="F130" t="n">
-        <v>1250</v>
+        <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>24.40000000000002</v>
+        <v>25.19833333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5174,38 +4968,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="C131" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D131" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="E131" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="F131" t="n">
-        <v>30303.8216</v>
+        <v>1250</v>
       </c>
       <c r="G131" t="n">
-        <v>24.30000000000002</v>
+        <v>25.17000000000002</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5215,38 +5003,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C132" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D132" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="E132" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F132" t="n">
-        <v>82</v>
+        <v>30303.8216</v>
       </c>
       <c r="G132" t="n">
-        <v>24.25000000000002</v>
+        <v>25.15166666666669</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5268,26 +5050,20 @@
         <v>24.3</v>
       </c>
       <c r="F133" t="n">
-        <v>19773.5757</v>
+        <v>82</v>
       </c>
       <c r="G133" t="n">
-        <v>24.30000000000003</v>
+        <v>25.14000000000002</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5297,38 +5073,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C134" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="D134" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="E134" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F134" t="n">
-        <v>14752.9787</v>
+        <v>19773.5757</v>
       </c>
       <c r="G134" t="n">
-        <v>24.45000000000002</v>
+        <v>25.12500000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5338,38 +5108,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C135" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D135" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E135" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F135" t="n">
-        <v>7937.9879</v>
+        <v>14752.9787</v>
       </c>
       <c r="G135" t="n">
-        <v>24.65000000000003</v>
+        <v>25.12166666666668</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5391,26 +5155,20 @@
         <v>24.7</v>
       </c>
       <c r="F136" t="n">
-        <v>45.952</v>
+        <v>7937.9879</v>
       </c>
       <c r="G136" t="n">
-        <v>24.70000000000003</v>
+        <v>25.12166666666668</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>24.7</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5420,38 +5178,32 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="C137" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="D137" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="E137" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F137" t="n">
-        <v>2886.7924</v>
+        <v>45.952</v>
       </c>
       <c r="G137" t="n">
-        <v>24.60000000000003</v>
+        <v>25.09666666666668</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>24.7</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5461,38 +5213,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C138" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D138" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E138" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F138" t="n">
-        <v>8185.3347</v>
+        <v>2886.7924</v>
       </c>
       <c r="G138" t="n">
-        <v>24.45000000000002</v>
+        <v>25.07333333333334</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5505,19 +5251,19 @@
         <v>24.4</v>
       </c>
       <c r="C139" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="D139" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="E139" t="n">
         <v>24.4</v>
       </c>
       <c r="F139" t="n">
-        <v>11237.9401</v>
+        <v>8185.3347</v>
       </c>
       <c r="G139" t="n">
-        <v>24.50000000000003</v>
+        <v>25.05666666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5527,11 +5273,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5541,22 +5283,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C140" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="D140" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E140" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="F140" t="n">
-        <v>50824.7241</v>
+        <v>11237.9401</v>
       </c>
       <c r="G140" t="n">
-        <v>24.40000000000003</v>
+        <v>25.04000000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5566,11 +5308,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5580,22 +5318,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C141" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D141" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E141" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="F141" t="n">
-        <v>21</v>
+        <v>50824.7241</v>
       </c>
       <c r="G141" t="n">
-        <v>24.30000000000003</v>
+        <v>25.01666666666668</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5605,11 +5343,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5619,22 +5353,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C142" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D142" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E142" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F142" t="n">
         <v>21</v>
       </c>
       <c r="G142" t="n">
-        <v>24.45000000000002</v>
+        <v>24.99833333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5644,11 +5378,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5670,10 +5400,10 @@
         <v>24.5</v>
       </c>
       <c r="F143" t="n">
-        <v>1090.6997</v>
+        <v>21</v>
       </c>
       <c r="G143" t="n">
-        <v>24.50000000000002</v>
+        <v>24.97666666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5683,11 +5413,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5709,10 +5435,10 @@
         <v>24.5</v>
       </c>
       <c r="F144" t="n">
-        <v>3125.9249</v>
+        <v>1090.6997</v>
       </c>
       <c r="G144" t="n">
-        <v>24.50000000000003</v>
+        <v>24.94833333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5722,11 +5448,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5736,22 +5458,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C145" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D145" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E145" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F145" t="n">
-        <v>21</v>
+        <v>3125.9249</v>
       </c>
       <c r="G145" t="n">
-        <v>24.55000000000003</v>
+        <v>24.92666666666668</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5761,11 +5483,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5775,22 +5493,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C146" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D146" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E146" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F146" t="n">
-        <v>15806.2722</v>
+        <v>21</v>
       </c>
       <c r="G146" t="n">
-        <v>24.45000000000002</v>
+        <v>24.91166666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5800,11 +5518,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5826,10 +5540,10 @@
         <v>24.3</v>
       </c>
       <c r="F147" t="n">
-        <v>21736.5746</v>
+        <v>15806.2722</v>
       </c>
       <c r="G147" t="n">
-        <v>24.30000000000002</v>
+        <v>24.88500000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5839,11 +5553,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5853,22 +5563,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="C148" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="D148" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="E148" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="F148" t="n">
-        <v>21</v>
+        <v>21736.5746</v>
       </c>
       <c r="G148" t="n">
-        <v>24.45000000000002</v>
+        <v>24.86500000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5878,11 +5588,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5895,19 +5601,19 @@
         <v>24.6</v>
       </c>
       <c r="C149" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D149" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E149" t="n">
         <v>24.6</v>
       </c>
       <c r="F149" t="n">
-        <v>7363.2154</v>
+        <v>21</v>
       </c>
       <c r="G149" t="n">
-        <v>24.65000000000003</v>
+        <v>24.84833333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5917,11 +5623,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5943,10 +5645,10 @@
         <v>24.6</v>
       </c>
       <c r="F150" t="n">
-        <v>4408.5097</v>
+        <v>7363.2154</v>
       </c>
       <c r="G150" t="n">
-        <v>24.70000000000003</v>
+        <v>24.83000000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5956,11 +5658,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +5668,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="C151" t="n">
         <v>24.7</v>
@@ -5979,13 +5677,13 @@
         <v>24.7</v>
       </c>
       <c r="E151" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="F151" t="n">
-        <v>53.0657</v>
+        <v>4408.5097</v>
       </c>
       <c r="G151" t="n">
-        <v>24.70000000000002</v>
+        <v>24.81666666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5995,11 +5693,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6009,7 +5703,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C152" t="n">
         <v>24.7</v>
@@ -6018,13 +5712,13 @@
         <v>24.7</v>
       </c>
       <c r="E152" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F152" t="n">
-        <v>21159.2114</v>
+        <v>53.0657</v>
       </c>
       <c r="G152" t="n">
-        <v>24.70000000000002</v>
+        <v>24.80333333333335</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6034,11 +5728,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6051,19 +5741,19 @@
         <v>24.6</v>
       </c>
       <c r="C153" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D153" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E153" t="n">
         <v>24.6</v>
       </c>
       <c r="F153" t="n">
-        <v>6229.6749</v>
+        <v>21159.2114</v>
       </c>
       <c r="G153" t="n">
-        <v>24.65000000000003</v>
+        <v>24.79166666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6073,11 +5763,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6099,10 +5785,10 @@
         <v>24.6</v>
       </c>
       <c r="F154" t="n">
-        <v>40958.2389</v>
+        <v>6229.6749</v>
       </c>
       <c r="G154" t="n">
-        <v>24.60000000000003</v>
+        <v>24.77333333333335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6112,11 +5798,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6129,19 +5811,19 @@
         <v>24.6</v>
       </c>
       <c r="C155" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="D155" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="E155" t="n">
         <v>24.6</v>
       </c>
       <c r="F155" t="n">
-        <v>65724</v>
+        <v>40958.2389</v>
       </c>
       <c r="G155" t="n">
-        <v>24.75000000000002</v>
+        <v>24.76000000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6151,11 +5833,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6165,7 +5843,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C156" t="n">
         <v>24.9</v>
@@ -6174,13 +5852,13 @@
         <v>24.9</v>
       </c>
       <c r="E156" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="F156" t="n">
-        <v>104</v>
+        <v>65724</v>
       </c>
       <c r="G156" t="n">
-        <v>24.90000000000002</v>
+        <v>24.75166666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6190,11 +5868,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6204,22 +5878,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E157" t="n">
         <v>24.4</v>
       </c>
-      <c r="C157" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>24.2</v>
-      </c>
       <c r="F157" t="n">
-        <v>58144.3022</v>
+        <v>104</v>
       </c>
       <c r="G157" t="n">
-        <v>24.55000000000002</v>
+        <v>24.73666666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6229,11 +5903,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6243,22 +5913,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="C158" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="D158" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="E158" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="F158" t="n">
-        <v>21</v>
+        <v>58144.3022</v>
       </c>
       <c r="G158" t="n">
-        <v>24.40000000000002</v>
+        <v>24.71500000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6268,11 +5938,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6282,22 +5948,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="C159" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="D159" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="E159" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="F159" t="n">
-        <v>51945.8728</v>
+        <v>21</v>
       </c>
       <c r="G159" t="n">
-        <v>24.40000000000002</v>
+        <v>24.69833333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6307,11 +5973,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6321,22 +5983,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C160" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D160" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E160" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="F160" t="n">
-        <v>21</v>
+        <v>51945.8728</v>
       </c>
       <c r="G160" t="n">
-        <v>24.30000000000002</v>
+        <v>24.68000000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6346,11 +6008,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6360,22 +6018,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C161" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D161" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E161" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F161" t="n">
-        <v>6599.3722</v>
+        <v>21</v>
       </c>
       <c r="G161" t="n">
-        <v>24.35000000000002</v>
+        <v>24.67000000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6385,11 +6043,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6399,22 +6053,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C162" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D162" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="E162" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F162" t="n">
-        <v>2982.4014</v>
+        <v>6599.3722</v>
       </c>
       <c r="G162" t="n">
-        <v>24.55000000000002</v>
+        <v>24.65833333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6424,11 +6078,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6438,22 +6088,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="C163" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D163" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="E163" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F163" t="n">
-        <v>11090.0283</v>
+        <v>2982.4014</v>
       </c>
       <c r="G163" t="n">
-        <v>24.55000000000003</v>
+        <v>24.64500000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6463,11 +6113,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6477,22 +6123,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C164" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D164" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="E164" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F164" t="n">
-        <v>14111.834</v>
+        <v>11090.0283</v>
       </c>
       <c r="G164" t="n">
-        <v>24.55000000000003</v>
+        <v>24.63833333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6502,11 +6148,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6516,22 +6158,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C165" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D165" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E165" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="F165" t="n">
-        <v>2813.5531</v>
+        <v>14111.834</v>
       </c>
       <c r="G165" t="n">
-        <v>24.75000000000003</v>
+        <v>24.64000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6541,11 +6183,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6555,22 +6193,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C166" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D166" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="E166" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F166" t="n">
-        <v>6933.9821</v>
+        <v>2813.5531</v>
       </c>
       <c r="G166" t="n">
-        <v>24.50000000000003</v>
+        <v>24.63000000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6580,11 +6218,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +6228,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C167" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D167" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E167" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F167" t="n">
-        <v>21</v>
+        <v>6933.9821</v>
       </c>
       <c r="G167" t="n">
-        <v>24.35000000000003</v>
+        <v>24.61833333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6619,11 +6253,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6648,7 +6278,7 @@
         <v>21</v>
       </c>
       <c r="G168" t="n">
-        <v>24.40000000000003</v>
+        <v>24.60000000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6658,11 +6288,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6672,22 +6298,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C169" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D169" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E169" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F169" t="n">
-        <v>20366.424</v>
+        <v>21</v>
       </c>
       <c r="G169" t="n">
-        <v>24.60000000000003</v>
+        <v>24.58833333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6697,11 +6323,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6711,7 +6333,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="C170" t="n">
         <v>24.8</v>
@@ -6720,13 +6342,13 @@
         <v>24.8</v>
       </c>
       <c r="E170" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="F170" t="n">
-        <v>4553.9739</v>
+        <v>20366.424</v>
       </c>
       <c r="G170" t="n">
-        <v>24.80000000000003</v>
+        <v>24.57666666666669</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6736,11 +6358,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6753,19 +6371,19 @@
         <v>24.8</v>
       </c>
       <c r="C171" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D171" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E171" t="n">
         <v>24.8</v>
       </c>
       <c r="F171" t="n">
-        <v>17517.3451</v>
+        <v>4553.9739</v>
       </c>
       <c r="G171" t="n">
-        <v>24.85000000000003</v>
+        <v>24.57500000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6775,11 +6393,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6789,22 +6403,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C172" t="n">
-        <v>26</v>
+        <v>24.9</v>
       </c>
       <c r="D172" t="n">
-        <v>26</v>
+        <v>24.9</v>
       </c>
       <c r="E172" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F172" t="n">
-        <v>344285.8736</v>
+        <v>17517.3451</v>
       </c>
       <c r="G172" t="n">
-        <v>25.45000000000003</v>
+        <v>24.57333333333335</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6814,11 +6428,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +6438,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="C173" t="n">
         <v>26</v>
@@ -6837,13 +6447,13 @@
         <v>26</v>
       </c>
       <c r="E173" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="F173" t="n">
-        <v>63086.423</v>
+        <v>344285.8736</v>
       </c>
       <c r="G173" t="n">
-        <v>26.00000000000003</v>
+        <v>24.59166666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6853,11 +6463,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6879,10 +6485,10 @@
         <v>25.8</v>
       </c>
       <c r="F174" t="n">
-        <v>28749.4988</v>
+        <v>63086.423</v>
       </c>
       <c r="G174" t="n">
-        <v>26.00000000000003</v>
+        <v>24.60833333333335</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6892,11 +6498,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6906,22 +6508,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C175" t="n">
         <v>26</v>
       </c>
-      <c r="C175" t="n">
-        <v>26.3</v>
-      </c>
       <c r="D175" t="n">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="E175" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F175" t="n">
-        <v>202115.5881</v>
+        <v>28749.4988</v>
       </c>
       <c r="G175" t="n">
-        <v>26.15000000000003</v>
+        <v>24.62333333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6931,11 +6533,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6945,22 +6543,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="C176" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="D176" t="n">
         <v>26.7</v>
       </c>
       <c r="E176" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="F176" t="n">
-        <v>117136.4421</v>
+        <v>202115.5881</v>
       </c>
       <c r="G176" t="n">
-        <v>26.45000000000003</v>
+        <v>24.64500000000002</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6970,11 +6568,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6984,22 +6578,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C177" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="D177" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E177" t="n">
         <v>26.5</v>
       </c>
       <c r="F177" t="n">
-        <v>49554.7448</v>
+        <v>117136.4421</v>
       </c>
       <c r="G177" t="n">
-        <v>26.55000000000003</v>
+        <v>24.67000000000002</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7009,11 +6603,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7023,22 +6613,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C178" t="n">
         <v>26.5</v>
       </c>
       <c r="D178" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E178" t="n">
         <v>26.5</v>
       </c>
       <c r="F178" t="n">
-        <v>81182.0096</v>
+        <v>49554.7448</v>
       </c>
       <c r="G178" t="n">
-        <v>26.50000000000003</v>
+        <v>24.69666666666668</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7048,11 +6638,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7062,22 +6648,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C179" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D179" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E179" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F179" t="n">
-        <v>3014.8669</v>
+        <v>81182.0096</v>
       </c>
       <c r="G179" t="n">
-        <v>26.60000000000003</v>
+        <v>24.72333333333335</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7087,11 +6673,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7101,7 +6683,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="C180" t="n">
         <v>26.7</v>
@@ -7110,13 +6692,13 @@
         <v>26.7</v>
       </c>
       <c r="E180" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F180" t="n">
-        <v>6056</v>
+        <v>3014.8669</v>
       </c>
       <c r="G180" t="n">
-        <v>26.70000000000003</v>
+        <v>24.75833333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7126,11 +6708,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7140,22 +6718,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C181" t="n">
         <v>26.7</v>
       </c>
-      <c r="C181" t="n">
-        <v>26.3</v>
-      </c>
       <c r="D181" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E181" t="n">
         <v>26.3</v>
       </c>
       <c r="F181" t="n">
-        <v>40591.3875</v>
+        <v>6056</v>
       </c>
       <c r="G181" t="n">
-        <v>26.50000000000003</v>
+        <v>24.78666666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7165,11 +6743,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7179,22 +6753,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C182" t="n">
         <v>26.3</v>
       </c>
-      <c r="C182" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D182" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E182" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="F182" t="n">
-        <v>15927.0118</v>
+        <v>40591.3875</v>
       </c>
       <c r="G182" t="n">
-        <v>26.10000000000003</v>
+        <v>24.81666666666668</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7204,11 +6778,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7218,22 +6788,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C183" t="n">
         <v>25.9</v>
       </c>
       <c r="D183" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="E183" t="n">
         <v>25.9</v>
       </c>
       <c r="F183" t="n">
-        <v>6808.4964</v>
+        <v>15927.0118</v>
       </c>
       <c r="G183" t="n">
-        <v>25.90000000000003</v>
+        <v>24.84166666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7243,11 +6813,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7257,22 +6823,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C184" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="D184" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E184" t="n">
-        <v>25.1</v>
+        <v>25.9</v>
       </c>
       <c r="F184" t="n">
-        <v>46637.5954</v>
+        <v>6808.4964</v>
       </c>
       <c r="G184" t="n">
-        <v>25.60000000000003</v>
+        <v>24.87000000000002</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7282,11 +6848,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7296,22 +6858,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C185" t="n">
         <v>25.3</v>
       </c>
-      <c r="C185" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D185" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E185" t="n">
         <v>25.1</v>
       </c>
       <c r="F185" t="n">
-        <v>3004.8636</v>
+        <v>46637.5954</v>
       </c>
       <c r="G185" t="n">
-        <v>25.50000000000002</v>
+        <v>24.88500000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7321,11 +6883,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7335,22 +6893,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
       <c r="C186" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="D186" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E186" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="F186" t="n">
-        <v>7936.8738</v>
+        <v>3004.8636</v>
       </c>
       <c r="G186" t="n">
-        <v>25.80000000000003</v>
+        <v>24.90666666666668</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7360,11 +6918,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7374,7 +6928,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C187" t="n">
         <v>25.9</v>
@@ -7383,13 +6937,13 @@
         <v>25.9</v>
       </c>
       <c r="E187" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F187" t="n">
-        <v>4616.9739</v>
+        <v>7936.8738</v>
       </c>
       <c r="G187" t="n">
-        <v>25.90000000000003</v>
+        <v>24.93000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7399,11 +6953,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7413,22 +6963,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C188" t="n">
         <v>25.9</v>
       </c>
-      <c r="C188" t="n">
-        <v>26.4</v>
-      </c>
       <c r="D188" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="E188" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="F188" t="n">
-        <v>39821.4997</v>
+        <v>4616.9739</v>
       </c>
       <c r="G188" t="n">
-        <v>26.15000000000002</v>
+        <v>24.95500000000002</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7438,11 +6988,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7452,22 +6998,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C189" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D189" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E189" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F189" t="n">
-        <v>11782.0231</v>
+        <v>39821.4997</v>
       </c>
       <c r="G189" t="n">
-        <v>26.30000000000002</v>
+        <v>24.98833333333335</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7477,11 +7023,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7503,10 +7045,10 @@
         <v>26.2</v>
       </c>
       <c r="F190" t="n">
-        <v>1208</v>
+        <v>11782.0231</v>
       </c>
       <c r="G190" t="n">
-        <v>26.20000000000002</v>
+        <v>25.01833333333335</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7516,11 +7058,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7533,19 +7071,19 @@
         <v>26.2</v>
       </c>
       <c r="C191" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D191" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E191" t="n">
         <v>26.2</v>
       </c>
       <c r="F191" t="n">
-        <v>158083.2093</v>
+        <v>1208</v>
       </c>
       <c r="G191" t="n">
-        <v>26.25000000000002</v>
+        <v>25.04833333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7555,11 +7093,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7569,7 +7103,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C192" t="n">
         <v>26.3</v>
@@ -7578,13 +7112,13 @@
         <v>26.3</v>
       </c>
       <c r="E192" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F192" t="n">
-        <v>3108.2056</v>
+        <v>158083.2093</v>
       </c>
       <c r="G192" t="n">
-        <v>26.30000000000002</v>
+        <v>25.08333333333335</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7594,11 +7128,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7608,22 +7138,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="C193" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D193" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E193" t="n">
-        <v>25.5</v>
+        <v>26.3</v>
       </c>
       <c r="F193" t="n">
-        <v>17901.503</v>
+        <v>3108.2056</v>
       </c>
       <c r="G193" t="n">
-        <v>26.20000000000002</v>
+        <v>25.11666666666668</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7633,11 +7163,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7647,7 +7173,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="C194" t="n">
         <v>26.1</v>
@@ -7659,10 +7185,10 @@
         <v>25.5</v>
       </c>
       <c r="F194" t="n">
-        <v>1042</v>
+        <v>17901.503</v>
       </c>
       <c r="G194" t="n">
-        <v>26.10000000000003</v>
+        <v>25.14666666666668</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7672,11 +7198,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7686,7 +7208,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="C195" t="n">
         <v>26.1</v>
@@ -7695,13 +7217,13 @@
         <v>26.1</v>
       </c>
       <c r="E195" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="F195" t="n">
-        <v>30</v>
+        <v>1042</v>
       </c>
       <c r="G195" t="n">
-        <v>26.10000000000003</v>
+        <v>25.17166666666668</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7711,11 +7233,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7725,7 +7243,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="C196" t="n">
         <v>26.1</v>
@@ -7734,13 +7252,13 @@
         <v>26.1</v>
       </c>
       <c r="E196" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="F196" t="n">
-        <v>22620.1834</v>
+        <v>30</v>
       </c>
       <c r="G196" t="n">
-        <v>26.10000000000003</v>
+        <v>25.19500000000001</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7750,11 +7268,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7767,19 +7281,19 @@
         <v>25.4</v>
       </c>
       <c r="C197" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D197" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E197" t="n">
         <v>25.4</v>
       </c>
       <c r="F197" t="n">
-        <v>1595.7289</v>
+        <v>22620.1834</v>
       </c>
       <c r="G197" t="n">
-        <v>26.00000000000003</v>
+        <v>25.21833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7789,11 +7303,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7803,22 +7313,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="C198" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="D198" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E198" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F198" t="n">
-        <v>15214.1736</v>
+        <v>1595.7289</v>
       </c>
       <c r="G198" t="n">
-        <v>25.75000000000003</v>
+        <v>25.24166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7828,11 +7338,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7842,22 +7348,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C199" t="n">
         <v>25.6</v>
       </c>
       <c r="D199" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E199" t="n">
         <v>25.6</v>
       </c>
       <c r="F199" t="n">
-        <v>1039.1016</v>
+        <v>15214.1736</v>
       </c>
       <c r="G199" t="n">
-        <v>25.60000000000003</v>
+        <v>25.26166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7867,11 +7373,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7884,19 +7386,19 @@
         <v>25.6</v>
       </c>
       <c r="C200" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D200" t="n">
         <v>25.6</v>
       </c>
       <c r="E200" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="F200" t="n">
-        <v>36012.9004</v>
+        <v>1039.1016</v>
       </c>
       <c r="G200" t="n">
-        <v>25.55000000000004</v>
+        <v>25.27833333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7906,11 +7408,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7920,22 +7418,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="C201" t="n">
         <v>25.5</v>
       </c>
       <c r="D201" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E201" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="F201" t="n">
-        <v>29597.3339</v>
+        <v>36012.9004</v>
       </c>
       <c r="G201" t="n">
-        <v>25.50000000000004</v>
+        <v>25.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7945,11 +7443,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7959,22 +7453,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C202" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D202" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E202" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F202" t="n">
-        <v>21</v>
+        <v>29597.3339</v>
       </c>
       <c r="G202" t="n">
-        <v>25.60000000000004</v>
+        <v>25.31833333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7984,11 +7478,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7998,7 +7488,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="C203" t="n">
         <v>25.7</v>
@@ -8007,13 +7497,13 @@
         <v>25.7</v>
       </c>
       <c r="E203" t="n">
-        <v>25</v>
+        <v>25.7</v>
       </c>
       <c r="F203" t="n">
-        <v>5078.4753</v>
+        <v>21</v>
       </c>
       <c r="G203" t="n">
-        <v>25.70000000000004</v>
+        <v>25.33833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8023,11 +7513,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8037,22 +7523,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C204" t="n">
-        <v>25</v>
+        <v>25.7</v>
       </c>
       <c r="D204" t="n">
-        <v>25</v>
+        <v>25.7</v>
       </c>
       <c r="E204" t="n">
         <v>25</v>
       </c>
       <c r="F204" t="n">
-        <v>3000</v>
+        <v>5078.4753</v>
       </c>
       <c r="G204" t="n">
-        <v>25.35000000000004</v>
+        <v>25.35833333333334</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8062,11 +7548,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8079,19 +7561,19 @@
         <v>25</v>
       </c>
       <c r="C205" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E205" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F205" t="n">
-        <v>138290.5115</v>
+        <v>3000</v>
       </c>
       <c r="G205" t="n">
-        <v>25.25000000000004</v>
+        <v>25.36666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8101,11 +7583,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8115,22 +7593,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C206" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="D206" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="E206" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="F206" t="n">
-        <v>12836.5045</v>
+        <v>138290.5115</v>
       </c>
       <c r="G206" t="n">
-        <v>25.40000000000003</v>
+        <v>25.38166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8140,11 +7618,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8154,22 +7628,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C207" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E207" t="n">
         <v>24.8</v>
       </c>
-      <c r="C207" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D207" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="E207" t="n">
-        <v>24.5</v>
-      </c>
       <c r="F207" t="n">
-        <v>67508.78389999999</v>
+        <v>12836.5045</v>
       </c>
       <c r="G207" t="n">
-        <v>25.05000000000003</v>
+        <v>25.39833333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8179,11 +7653,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8193,22 +7663,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="C208" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="D208" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="E208" t="n">
         <v>24.5</v>
       </c>
       <c r="F208" t="n">
-        <v>38367.9699</v>
+        <v>67508.78389999999</v>
       </c>
       <c r="G208" t="n">
-        <v>25.10000000000003</v>
+        <v>25.40666666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8218,11 +7688,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8235,19 +7701,19 @@
         <v>24.5</v>
       </c>
       <c r="C209" t="n">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
       <c r="D209" t="n">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
       <c r="E209" t="n">
         <v>24.5</v>
       </c>
       <c r="F209" t="n">
-        <v>11782.0231</v>
+        <v>38367.9699</v>
       </c>
       <c r="G209" t="n">
-        <v>24.95000000000003</v>
+        <v>25.42000000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8257,11 +7723,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8274,19 +7736,19 @@
         <v>24.5</v>
       </c>
       <c r="C210" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="D210" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="E210" t="n">
         <v>24.5</v>
       </c>
       <c r="F210" t="n">
-        <v>2974.314</v>
+        <v>11782.0231</v>
       </c>
       <c r="G210" t="n">
-        <v>24.70000000000003</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8296,12 +7758,43 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C211" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E211" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2974.314</v>
+      </c>
+      <c r="G211" t="n">
+        <v>25.42000000000001</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:N221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>29861.9842</v>
       </c>
       <c r="G2" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="H2" t="n">
         <v>24.46000000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6521.0372</v>
       </c>
       <c r="G3" t="n">
+        <v>25.00666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>24.4816666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3440.8307</v>
       </c>
       <c r="G4" t="n">
+        <v>25.05333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>24.50333333333337</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>21537.6207</v>
       </c>
       <c r="G5" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="H5" t="n">
         <v>24.5266666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,22 +605,21 @@
         <v>4942.0381</v>
       </c>
       <c r="G6" t="n">
+        <v>25.13333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>24.55000000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -627,209 +643,231 @@
         <v>49736.0996</v>
       </c>
       <c r="G7" t="n">
+        <v>25.16666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>24.57333333333336</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2651.4488</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.19333333333333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24.59500000000003</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2669.0557</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25.21999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.61666666666669</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>25.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="C10" t="n">
         <v>25.3</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="D10" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17763.1107</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25.24666666666666</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.64000000000003</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10538.4376</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.27333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24.66500000000002</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>183.1635</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.30666666666666</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24.69166666666669</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L12" t="n">
         <v>25.2</v>
       </c>
-      <c r="C8" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2651.4488</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24.59500000000003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2669.0557</v>
-      </c>
-      <c r="G9" t="n">
-        <v>24.61666666666669</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>17763.1107</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24.64000000000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10538.4376</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24.66500000000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>183.1635</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24.69166666666669</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +891,25 @@
         <v>91538.46120000001</v>
       </c>
       <c r="G13" t="n">
+        <v>25.31333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>24.71833333333336</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +933,29 @@
         <v>4961.1045</v>
       </c>
       <c r="G14" t="n">
+        <v>25.32666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>24.74666666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +979,29 @@
         <v>19175.2072</v>
       </c>
       <c r="G15" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H15" t="n">
         <v>24.77500000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +1025,25 @@
         <v>46.1226</v>
       </c>
       <c r="G16" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="H16" t="n">
         <v>24.80333333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1067,29 @@
         <v>139.3661</v>
       </c>
       <c r="G17" t="n">
+        <v>25.38666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>24.82833333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1113,29 @@
         <v>445.5373</v>
       </c>
       <c r="G18" t="n">
+        <v>25.41333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>24.85333333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1159,21 @@
         <v>11129.602</v>
       </c>
       <c r="G19" t="n">
+        <v>25.45333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>24.88000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1197,21 @@
         <v>29024.3523</v>
       </c>
       <c r="G20" t="n">
+        <v>25.50000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>24.91000000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1235,21 @@
         <v>3301.5039</v>
       </c>
       <c r="G21" t="n">
+        <v>25.54666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>24.93666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1273,21 @@
         <v>68348.3931</v>
       </c>
       <c r="G22" t="n">
+        <v>25.59333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>24.96333333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1311,21 @@
         <v>10543.7349</v>
       </c>
       <c r="G23" t="n">
+        <v>25.66000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>24.99500000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1349,21 @@
         <v>747.3576</v>
       </c>
       <c r="G24" t="n">
+        <v>25.72666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>25.02500000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1387,21 @@
         <v>23737.9035</v>
       </c>
       <c r="G25" t="n">
+        <v>25.77333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>25.05166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1425,21 @@
         <v>41272.4477</v>
       </c>
       <c r="G26" t="n">
+        <v>25.78666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>25.07166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1463,21 @@
         <v>51948.7661</v>
       </c>
       <c r="G27" t="n">
+        <v>25.76666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>25.08333333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1501,21 @@
         <v>63035.8921</v>
       </c>
       <c r="G28" t="n">
+        <v>25.73333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>25.09166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1539,21 @@
         <v>33622.6674</v>
       </c>
       <c r="G29" t="n">
+        <v>25.72000000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>25.10666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1577,21 @@
         <v>33190.6886</v>
       </c>
       <c r="G30" t="n">
+        <v>25.70666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>25.12333333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1615,21 @@
         <v>398.4314</v>
       </c>
       <c r="G31" t="n">
+        <v>25.71333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>25.14</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1653,21 @@
         <v>7868.5419</v>
       </c>
       <c r="G32" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="H32" t="n">
         <v>25.16166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1691,21 @@
         <v>81435.2694</v>
       </c>
       <c r="G33" t="n">
+        <v>25.78666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>25.18833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1729,21 @@
         <v>145965.41672022</v>
       </c>
       <c r="G34" t="n">
+        <v>25.84666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>25.22166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1767,21 @@
         <v>181032.07827978</v>
       </c>
       <c r="G35" t="n">
+        <v>25.89333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>25.25666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1805,21 @@
         <v>185338.0018</v>
       </c>
       <c r="G36" t="n">
+        <v>25.93999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>25.29500000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1843,21 @@
         <v>159697.5467</v>
       </c>
       <c r="G37" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="H37" t="n">
         <v>25.33666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1881,21 @@
         <v>148994.0558</v>
       </c>
       <c r="G38" t="n">
+        <v>26.12666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>25.38666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1919,21 @@
         <v>678916.3851</v>
       </c>
       <c r="G39" t="n">
+        <v>26.19333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>25.43000000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +1957,21 @@
         <v>8485.1957</v>
       </c>
       <c r="G40" t="n">
+        <v>26.26666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>25.46833333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +1995,21 @@
         <v>573519.1299000001</v>
       </c>
       <c r="G41" t="n">
+        <v>26.42666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>25.52333333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2033,21 @@
         <v>912510.1451</v>
       </c>
       <c r="G42" t="n">
+        <v>26.71333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>25.61333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2071,21 @@
         <v>216772.9619</v>
       </c>
       <c r="G43" t="n">
+        <v>26.99333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>25.68833333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2109,21 @@
         <v>70769.18640000001</v>
       </c>
       <c r="G44" t="n">
+        <v>27.27999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>25.77666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2147,21 @@
         <v>340732.1396</v>
       </c>
       <c r="G45" t="n">
+        <v>27.51333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>25.85333333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2185,21 @@
         <v>219625.3046</v>
       </c>
       <c r="G46" t="n">
+        <v>27.77999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>25.94500000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2223,21 @@
         <v>116902.2981</v>
       </c>
       <c r="G47" t="n">
+        <v>28.02666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>26.02833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2261,21 @@
         <v>438789.66372067</v>
       </c>
       <c r="G48" t="n">
+        <v>28.21999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>26.10666666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2299,21 @@
         <v>90022.57327009999</v>
       </c>
       <c r="G49" t="n">
+        <v>28.18666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>26.13500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2337,21 @@
         <v>27650.2863</v>
       </c>
       <c r="G50" t="n">
+        <v>28.20666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>26.17500000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2375,21 @@
         <v>266404.03571869</v>
       </c>
       <c r="G51" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="H51" t="n">
         <v>26.23000000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2413,21 @@
         <v>90159.57074369</v>
       </c>
       <c r="G52" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="H52" t="n">
         <v>26.26000000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2451,21 @@
         <v>514484.3965</v>
       </c>
       <c r="G53" t="n">
+        <v>28.16666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>26.28666666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2489,21 @@
         <v>138500.7482</v>
       </c>
       <c r="G54" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H54" t="n">
         <v>26.31000000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2527,21 @@
         <v>156351.89079433</v>
       </c>
       <c r="G55" t="n">
+        <v>28.03333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>26.33000000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2565,21 @@
         <v>31207.7114</v>
       </c>
       <c r="G56" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="H56" t="n">
         <v>26.33666666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2603,21 @@
         <v>258955.8512</v>
       </c>
       <c r="G57" t="n">
+        <v>27.61999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>26.35166666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2641,21 @@
         <v>30841.503</v>
       </c>
       <c r="G58" t="n">
+        <v>27.40666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>26.36166666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2679,21 @@
         <v>70672.8241</v>
       </c>
       <c r="G59" t="n">
+        <v>27.16666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>26.37333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2717,21 @@
         <v>32278.0868</v>
       </c>
       <c r="G60" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="H60" t="n">
         <v>26.38000000000001</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2755,21 @@
         <v>361.0692</v>
       </c>
       <c r="G61" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H61" t="n">
         <v>26.38833333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2793,21 @@
         <v>179223.5097</v>
       </c>
       <c r="G62" t="n">
+        <v>26.44666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>26.40000000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2831,21 @@
         <v>132014.4584</v>
       </c>
       <c r="G63" t="n">
+        <v>26.24666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>26.41666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +2869,21 @@
         <v>7276.9443</v>
       </c>
       <c r="G64" t="n">
+        <v>26.24666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>26.43333333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +2907,21 @@
         <v>21384.0139</v>
       </c>
       <c r="G65" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>26.44166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +2945,21 @@
         <v>22</v>
       </c>
       <c r="G66" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="H66" t="n">
         <v>26.45666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +2983,21 @@
         <v>18006.5627</v>
       </c>
       <c r="G67" t="n">
+        <v>25.97333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>26.46166666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3021,21 @@
         <v>23505.5154</v>
       </c>
       <c r="G68" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="H68" t="n">
         <v>26.46833333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3059,21 @@
         <v>397610.6667</v>
       </c>
       <c r="G69" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="H69" t="n">
         <v>26.46500000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3097,21 @@
         <v>51056.6003</v>
       </c>
       <c r="G70" t="n">
+        <v>25.79333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>26.46666666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3135,21 @@
         <v>10000</v>
       </c>
       <c r="G71" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="H71" t="n">
         <v>26.47833333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3173,21 @@
         <v>196192.0317</v>
       </c>
       <c r="G72" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>26.475</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3211,21 @@
         <v>83336.4354</v>
       </c>
       <c r="G73" t="n">
+        <v>25.73333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>26.46666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3249,21 @@
         <v>23</v>
       </c>
       <c r="G74" t="n">
+        <v>25.67333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>26.46</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3287,21 @@
         <v>106247.22667959</v>
       </c>
       <c r="G75" t="n">
+        <v>25.60666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>26.44666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3325,21 @@
         <v>475894.7666</v>
       </c>
       <c r="G76" t="n">
+        <v>25.53333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>26.43166666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3363,21 @@
         <v>202043.9623</v>
       </c>
       <c r="G77" t="n">
+        <v>25.55333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>26.44166666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3401,21 @@
         <v>206019.9384</v>
       </c>
       <c r="G78" t="n">
+        <v>25.53333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>26.44666666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3439,21 @@
         <v>15437.87</v>
       </c>
       <c r="G79" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="H79" t="n">
         <v>26.44000000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3477,21 @@
         <v>239327.512</v>
       </c>
       <c r="G80" t="n">
+        <v>25.46666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>26.43333333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3515,21 @@
         <v>255.4018</v>
       </c>
       <c r="G81" t="n">
+        <v>25.42666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>26.42666666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3553,21 @@
         <v>23</v>
       </c>
       <c r="G82" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="H82" t="n">
         <v>26.41833333333335</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3591,21 @@
         <v>37775.8129</v>
       </c>
       <c r="G83" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>26.41166666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3629,21 @@
         <v>793.65</v>
       </c>
       <c r="G84" t="n">
+        <v>25.51333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>26.41166666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3667,21 @@
         <v>27492.6885</v>
       </c>
       <c r="G85" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="H85" t="n">
         <v>26.40833333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3705,21 @@
         <v>1776.4971</v>
       </c>
       <c r="G86" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H86" t="n">
         <v>26.40666666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3743,21 @@
         <v>532.4032</v>
       </c>
       <c r="G87" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="H87" t="n">
         <v>26.41833333333335</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3781,21 @@
         <v>31072.5782</v>
       </c>
       <c r="G88" t="n">
+        <v>25.57333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>26.42666666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3819,21 @@
         <v>781.25</v>
       </c>
       <c r="G89" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H89" t="n">
         <v>26.43000000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +3857,21 @@
         <v>223</v>
       </c>
       <c r="G90" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>26.43666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +3895,21 @@
         <v>4978.475</v>
       </c>
       <c r="G91" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="H91" t="n">
         <v>26.43333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +3933,21 @@
         <v>9404.856</v>
       </c>
       <c r="G92" t="n">
+        <v>25.67333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>26.42500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +3971,21 @@
         <v>11078.3172</v>
       </c>
       <c r="G93" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="H93" t="n">
         <v>26.41000000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4009,21 @@
         <v>18069.1138</v>
       </c>
       <c r="G94" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H94" t="n">
         <v>26.39333333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4047,21 @@
         <v>14856.3652</v>
       </c>
       <c r="G95" t="n">
+        <v>25.64666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>26.37166666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4085,21 @@
         <v>148516.9097</v>
       </c>
       <c r="G96" t="n">
+        <v>25.63333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>26.35000000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4123,21 @@
         <v>102276.733</v>
       </c>
       <c r="G97" t="n">
+        <v>25.65333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>26.32166666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4161,21 @@
         <v>7862.3051</v>
       </c>
       <c r="G98" t="n">
+        <v>25.63333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>26.28833333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4199,21 @@
         <v>55030.5235</v>
       </c>
       <c r="G99" t="n">
+        <v>25.59333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>26.26166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4237,21 @@
         <v>122673.7346</v>
       </c>
       <c r="G100" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="H100" t="n">
         <v>26.23166666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4275,21 @@
         <v>16576.6348</v>
       </c>
       <c r="G101" t="n">
+        <v>25.52666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>26.18166666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4313,21 @@
         <v>88318.6599</v>
       </c>
       <c r="G102" t="n">
+        <v>25.46666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>26.10666666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4351,21 @@
         <v>19218.1307</v>
       </c>
       <c r="G103" t="n">
+        <v>25.47333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>26.04666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4389,21 @@
         <v>81914.76029999999</v>
       </c>
       <c r="G104" t="n">
+        <v>25.41333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>25.96333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4427,21 @@
         <v>21725.8423</v>
       </c>
       <c r="G105" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H105" t="n">
         <v>25.89333333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4465,21 @@
         <v>81</v>
       </c>
       <c r="G106" t="n">
+        <v>25.32666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>25.82</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4503,21 @@
         <v>7325.8198</v>
       </c>
       <c r="G107" t="n">
+        <v>25.29333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>25.74166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4541,21 @@
         <v>7128.2204</v>
       </c>
       <c r="G108" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H108" t="n">
         <v>25.68</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +4579,21 @@
         <v>41463.4141</v>
       </c>
       <c r="G109" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="H109" t="n">
         <v>25.66166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +4617,21 @@
         <v>9526.661</v>
       </c>
       <c r="G110" t="n">
+        <v>25.26666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>25.63666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +4655,21 @@
         <v>19018.1324</v>
       </c>
       <c r="G111" t="n">
+        <v>25.23333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>25.58333333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +4693,21 @@
         <v>23</v>
       </c>
       <c r="G112" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="H112" t="n">
         <v>25.55666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +4731,21 @@
         <v>597.9876</v>
       </c>
       <c r="G113" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="H113" t="n">
         <v>25.53166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +4769,21 @@
         <v>2009.7177</v>
       </c>
       <c r="G114" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="H114" t="n">
         <v>25.51166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +4807,21 @@
         <v>65087.7544</v>
       </c>
       <c r="G115" t="n">
+        <v>25.08666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>25.495</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +4845,21 @@
         <v>48321.8863</v>
       </c>
       <c r="G116" t="n">
+        <v>25.08666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>25.48833333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +4883,21 @@
         <v>12904.3864</v>
       </c>
       <c r="G117" t="n">
+        <v>25.09333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>25.475</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +4921,21 @@
         <v>4749.7583</v>
       </c>
       <c r="G118" t="n">
+        <v>25.04666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>25.45666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +4959,21 @@
         <v>1683.5135</v>
       </c>
       <c r="G119" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="H119" t="n">
         <v>25.43666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +4997,21 @@
         <v>31361.7648</v>
       </c>
       <c r="G120" t="n">
+        <v>25.05333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>25.41666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +5035,21 @@
         <v>23</v>
       </c>
       <c r="G121" t="n">
+        <v>25.03333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>25.40333333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5073,21 @@
         <v>184935.5394</v>
       </c>
       <c r="G122" t="n">
+        <v>25</v>
+      </c>
+      <c r="H122" t="n">
         <v>25.38</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5111,21 @@
         <v>691</v>
       </c>
       <c r="G123" t="n">
+        <v>24.92666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>25.35</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5149,21 @@
         <v>16042.8554</v>
       </c>
       <c r="G124" t="n">
+        <v>24.86666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>25.31666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,18 +5187,21 @@
         <v>74468.2896</v>
       </c>
       <c r="G125" t="n">
+        <v>24.79333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>25.29333333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,18 +5225,21 @@
         <v>11271.8932</v>
       </c>
       <c r="G126" t="n">
+        <v>24.75999999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>25.26333333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,18 +5263,21 @@
         <v>13898.9998</v>
       </c>
       <c r="G127" t="n">
+        <v>24.72666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>25.24500000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,18 +5301,21 @@
         <v>4627.812</v>
       </c>
       <c r="G128" t="n">
+        <v>24.69333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>25.22500000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,18 +5339,21 @@
         <v>91682.7742</v>
       </c>
       <c r="G129" t="n">
+        <v>24.65333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>25.21500000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,18 +5377,21 @@
         <v>30</v>
       </c>
       <c r="G130" t="n">
+        <v>24.60666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>25.19833333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,18 +5415,21 @@
         <v>1250</v>
       </c>
       <c r="G131" t="n">
+        <v>24.56666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>25.17000000000002</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,18 +5453,21 @@
         <v>30303.8216</v>
       </c>
       <c r="G132" t="n">
+        <v>24.50666666666665</v>
+      </c>
+      <c r="H132" t="n">
         <v>25.15166666666669</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,18 +5491,21 @@
         <v>82</v>
       </c>
       <c r="G133" t="n">
+        <v>24.46666666666665</v>
+      </c>
+      <c r="H133" t="n">
         <v>25.14000000000002</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,18 +5529,21 @@
         <v>19773.5757</v>
       </c>
       <c r="G134" t="n">
+        <v>24.42666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>25.12500000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,18 +5567,21 @@
         <v>14752.9787</v>
       </c>
       <c r="G135" t="n">
+        <v>24.42666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>25.12166666666668</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,18 +5605,21 @@
         <v>7937.9879</v>
       </c>
       <c r="G136" t="n">
+        <v>24.40666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>25.12166666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,18 +5643,21 @@
         <v>45.952</v>
       </c>
       <c r="G137" t="n">
+        <v>24.41999999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>25.09666666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,18 +5681,21 @@
         <v>2886.7924</v>
       </c>
       <c r="G138" t="n">
+        <v>24.42666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>25.07333333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,18 +5719,21 @@
         <v>8185.3347</v>
       </c>
       <c r="G139" t="n">
+        <v>24.43999999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>25.05666666666668</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,18 +5757,21 @@
         <v>11237.9401</v>
       </c>
       <c r="G140" t="n">
+        <v>24.45333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>25.04000000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,18 +5795,21 @@
         <v>50824.7241</v>
       </c>
       <c r="G141" t="n">
+        <v>24.43999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>25.01666666666668</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,18 +5833,21 @@
         <v>21</v>
       </c>
       <c r="G142" t="n">
+        <v>24.43333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>24.99833333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,18 +5871,21 @@
         <v>21</v>
       </c>
       <c r="G143" t="n">
+        <v>24.43999999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>24.97666666666668</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,18 +5909,21 @@
         <v>1090.6997</v>
       </c>
       <c r="G144" t="n">
+        <v>24.44666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>24.94833333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,18 +5947,21 @@
         <v>3125.9249</v>
       </c>
       <c r="G145" t="n">
+        <v>24.45333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>24.92666666666668</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,18 +5985,21 @@
         <v>21</v>
       </c>
       <c r="G146" t="n">
+        <v>24.46666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>24.91166666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,18 +6023,21 @@
         <v>15806.2722</v>
       </c>
       <c r="G147" t="n">
+        <v>24.47333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>24.88500000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,18 +6061,21 @@
         <v>21736.5746</v>
       </c>
       <c r="G148" t="n">
+        <v>24.47333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>24.86500000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,18 +6099,21 @@
         <v>21</v>
       </c>
       <c r="G149" t="n">
+        <v>24.49333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>24.84833333333335</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,18 +6137,21 @@
         <v>7363.2154</v>
       </c>
       <c r="G150" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H150" t="n">
         <v>24.83000000000002</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5683,18 +6175,21 @@
         <v>4408.5097</v>
       </c>
       <c r="G151" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H151" t="n">
         <v>24.81666666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,18 +6213,21 @@
         <v>53.0657</v>
       </c>
       <c r="G152" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H152" t="n">
         <v>24.80333333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5753,18 +6251,21 @@
         <v>21159.2114</v>
       </c>
       <c r="G153" t="n">
+        <v>24.51333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>24.79166666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,18 +6289,21 @@
         <v>6229.6749</v>
       </c>
       <c r="G154" t="n">
+        <v>24.52666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>24.77333333333335</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5823,18 +6327,21 @@
         <v>40958.2389</v>
       </c>
       <c r="G155" t="n">
+        <v>24.52666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>24.76000000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,18 +6365,21 @@
         <v>65724</v>
       </c>
       <c r="G156" t="n">
+        <v>24.57333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>24.75166666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,18 +6403,21 @@
         <v>104</v>
       </c>
       <c r="G157" t="n">
+        <v>24.60666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>24.73666666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,18 +6441,21 @@
         <v>58144.3022</v>
       </c>
       <c r="G158" t="n">
+        <v>24.58666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>24.71500000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,18 +6479,21 @@
         <v>21</v>
       </c>
       <c r="G159" t="n">
+        <v>24.59333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>24.69833333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5998,18 +6517,21 @@
         <v>51945.8728</v>
       </c>
       <c r="G160" t="n">
+        <v>24.57333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>24.68000000000001</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6033,18 +6555,21 @@
         <v>21</v>
       </c>
       <c r="G161" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="H161" t="n">
         <v>24.67000000000002</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,18 +6593,21 @@
         <v>6599.3722</v>
       </c>
       <c r="G162" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="H162" t="n">
         <v>24.65833333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6103,18 +6631,21 @@
         <v>2982.4014</v>
       </c>
       <c r="G163" t="n">
+        <v>24.59333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>24.64500000000002</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,18 +6669,21 @@
         <v>11090.0283</v>
       </c>
       <c r="G164" t="n">
+        <v>24.57333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>24.63833333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6173,18 +6707,21 @@
         <v>14111.834</v>
       </c>
       <c r="G165" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="H165" t="n">
         <v>24.64000000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,18 +6745,21 @@
         <v>2813.5531</v>
       </c>
       <c r="G166" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="H166" t="n">
         <v>24.63000000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6243,18 +6783,21 @@
         <v>6933.9821</v>
       </c>
       <c r="G167" t="n">
+        <v>24.55333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>24.61833333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,18 +6821,21 @@
         <v>21</v>
       </c>
       <c r="G168" t="n">
+        <v>24.53333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>24.60000000000002</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,18 +6859,21 @@
         <v>21</v>
       </c>
       <c r="G169" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="H169" t="n">
         <v>24.58833333333335</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,18 +6897,21 @@
         <v>20366.424</v>
       </c>
       <c r="G170" t="n">
+        <v>24.53333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>24.57666666666669</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,18 +6935,21 @@
         <v>4553.9739</v>
       </c>
       <c r="G171" t="n">
+        <v>24.52666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>24.57500000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,18 +6973,21 @@
         <v>17517.3451</v>
       </c>
       <c r="G172" t="n">
+        <v>24.52666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>24.57333333333335</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,18 +7011,21 @@
         <v>344285.8736</v>
       </c>
       <c r="G173" t="n">
+        <v>24.64666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>24.59166666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,18 +7049,21 @@
         <v>63086.423</v>
       </c>
       <c r="G174" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="H174" t="n">
         <v>24.60833333333335</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,18 +7087,21 @@
         <v>28749.4988</v>
       </c>
       <c r="G175" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="H175" t="n">
         <v>24.62333333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,18 +7125,21 @@
         <v>202115.5881</v>
       </c>
       <c r="G176" t="n">
+        <v>24.98666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>24.64500000000002</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,18 +7163,21 @@
         <v>117136.4421</v>
       </c>
       <c r="G177" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="H177" t="n">
         <v>24.67000000000002</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,18 +7201,21 @@
         <v>49554.7448</v>
       </c>
       <c r="G178" t="n">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>24.69666666666668</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,18 +7239,21 @@
         <v>81182.0096</v>
       </c>
       <c r="G179" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H179" t="n">
         <v>24.72333333333335</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,18 +7277,21 @@
         <v>3014.8669</v>
       </c>
       <c r="G180" t="n">
+        <v>25.52666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>24.75833333333335</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6733,18 +7315,21 @@
         <v>6056</v>
       </c>
       <c r="G181" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H181" t="n">
         <v>24.78666666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,18 +7353,21 @@
         <v>40591.3875</v>
       </c>
       <c r="G182" t="n">
+        <v>25.79333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>24.81666666666668</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,18 +7391,21 @@
         <v>15927.0118</v>
       </c>
       <c r="G183" t="n">
+        <v>25.89333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>24.84166666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,18 +7429,21 @@
         <v>6808.4964</v>
       </c>
       <c r="G184" t="n">
+        <v>25.99333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>24.87000000000002</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,18 +7467,21 @@
         <v>46637.5954</v>
       </c>
       <c r="G185" t="n">
+        <v>26.02666666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>24.88500000000001</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,18 +7505,21 @@
         <v>3004.8636</v>
       </c>
       <c r="G186" t="n">
+        <v>26.08666666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>24.90666666666668</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6943,18 +7543,21 @@
         <v>7936.8738</v>
       </c>
       <c r="G187" t="n">
+        <v>26.15333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>24.93000000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,18 +7581,21 @@
         <v>4616.9739</v>
       </c>
       <c r="G188" t="n">
+        <v>26.14666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>24.95500000000002</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,18 +7619,21 @@
         <v>39821.4997</v>
       </c>
       <c r="G189" t="n">
+        <v>26.17333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>24.98833333333335</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,18 +7657,21 @@
         <v>11782.0231</v>
       </c>
       <c r="G190" t="n">
+        <v>26.18666666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>25.01833333333335</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7083,18 +7695,21 @@
         <v>1208</v>
       </c>
       <c r="G191" t="n">
+        <v>26.17999999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>25.04833333333335</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,18 +7733,21 @@
         <v>158083.2093</v>
       </c>
       <c r="G192" t="n">
+        <v>26.15999999999999</v>
+      </c>
+      <c r="H192" t="n">
         <v>25.08333333333335</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7153,18 +7771,21 @@
         <v>3108.2056</v>
       </c>
       <c r="G193" t="n">
+        <v>26.14666666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>25.11666666666668</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,18 +7809,21 @@
         <v>17901.503</v>
       </c>
       <c r="G194" t="n">
+        <v>26.11999999999999</v>
+      </c>
+      <c r="H194" t="n">
         <v>25.14666666666668</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,18 +7847,21 @@
         <v>1042</v>
       </c>
       <c r="G195" t="n">
+        <v>26.07999999999999</v>
+      </c>
+      <c r="H195" t="n">
         <v>25.17166666666668</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,18 +7885,21 @@
         <v>30</v>
       </c>
       <c r="G196" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="H196" t="n">
         <v>25.19500000000001</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7293,18 +7923,21 @@
         <v>22620.1834</v>
       </c>
       <c r="G197" t="n">
+        <v>26.02666666666666</v>
+      </c>
+      <c r="H197" t="n">
         <v>25.21833333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,18 +7961,21 @@
         <v>1595.7289</v>
       </c>
       <c r="G198" t="n">
+        <v>26.02666666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>25.24166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,18 +7999,21 @@
         <v>15214.1736</v>
       </c>
       <c r="G199" t="n">
+        <v>26.00666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>25.26166666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7398,18 +8037,21 @@
         <v>1039.1016</v>
       </c>
       <c r="G200" t="n">
+        <v>26.02666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>25.27833333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,18 +8075,21 @@
         <v>36012.9004</v>
       </c>
       <c r="G201" t="n">
+        <v>26.01333333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>25.3</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,18 +8113,21 @@
         <v>29597.3339</v>
       </c>
       <c r="G202" t="n">
+        <v>25.98666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>25.31833333333334</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,18 +8151,21 @@
         <v>21</v>
       </c>
       <c r="G203" t="n">
+        <v>25.97333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>25.33833333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,18 +8189,21 @@
         <v>5078.4753</v>
       </c>
       <c r="G204" t="n">
+        <v>25.92666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>25.35833333333334</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,18 +8227,21 @@
         <v>3000</v>
       </c>
       <c r="G205" t="n">
+        <v>25.84666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>25.36666666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,18 +8265,21 @@
         <v>138290.5115</v>
       </c>
       <c r="G206" t="n">
+        <v>25.80000000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>25.38166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,18 +8303,21 @@
         <v>12836.5045</v>
       </c>
       <c r="G207" t="n">
+        <v>25.73333333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>25.39833333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,18 +8341,21 @@
         <v>67508.78389999999</v>
       </c>
       <c r="G208" t="n">
+        <v>25.63333333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>25.40666666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7713,18 +8379,21 @@
         <v>38367.9699</v>
       </c>
       <c r="G209" t="n">
+        <v>25.58666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>25.42000000000001</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,18 +8417,21 @@
         <v>11782.0231</v>
       </c>
       <c r="G210" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="H210" t="n">
         <v>25.41666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,18 +8455,401 @@
         <v>2974.314</v>
       </c>
       <c r="G211" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H211" t="n">
         <v>25.42000000000001</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>21</v>
+      </c>
+      <c r="G212" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="H212" t="n">
+        <v>25.42666666666667</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E213" t="n">
+        <v>25</v>
+      </c>
+      <c r="F213" t="n">
+        <v>99867.5477</v>
+      </c>
+      <c r="G213" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="H213" t="n">
+        <v>25.43333333333334</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F214" t="n">
+        <v>49089.2567</v>
+      </c>
+      <c r="G214" t="n">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="H214" t="n">
+        <v>25.44166666666667</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C215" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>12203.3829</v>
+      </c>
+      <c r="G215" t="n">
+        <v>25.22666666666667</v>
+      </c>
+      <c r="H215" t="n">
+        <v>25.45333333333334</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1908.9217</v>
+      </c>
+      <c r="G216" t="n">
+        <v>25.21333333333333</v>
+      </c>
+      <c r="H216" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E217" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>9333</v>
+      </c>
+      <c r="G217" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="H217" t="n">
+        <v>25.46666666666667</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C218" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22042.4722</v>
+      </c>
+      <c r="G218" t="n">
+        <v>25.19333333333334</v>
+      </c>
+      <c r="H218" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C219" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E219" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G219" t="n">
+        <v>25.18000000000001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>25.505</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E220" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>26363.3827</v>
+      </c>
+      <c r="G220" t="n">
+        <v>25.22000000000001</v>
+      </c>
+      <c r="H220" t="n">
+        <v>25.52833333333333</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>27871.2481</v>
+      </c>
+      <c r="G221" t="n">
+        <v>25.21333333333334</v>
+      </c>
+      <c r="H221" t="n">
+        <v>25.545</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N279"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +583,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +616,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +649,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +682,15 @@
         <v>-28757465.495</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -946,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1054,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1090,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1126,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1162,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1196,24 +1078,15 @@
         <v>-21529260.69915</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1240,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1278,24 +1144,15 @@
         <v>-21519253.07185</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1322,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1360,24 +1210,15 @@
         <v>-21509700.62287041</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1444,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1484,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1524,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1564,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1604,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1644,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1684,20 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1724,20 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1764,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1804,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1844,20 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1884,20 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1924,20 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1964,20 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2004,20 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2044,20 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2084,20 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2124,20 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2164,20 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2204,20 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2244,20 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2284,20 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2324,20 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2364,20 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2404,20 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2444,20 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2484,20 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2522,22 +2167,21 @@
         <v>-21473267.71723618</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2564,20 +2208,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2604,20 +2245,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2644,20 +2282,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2684,20 +2319,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2724,20 +2356,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2764,20 +2393,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2804,20 +2430,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2842,22 +2465,21 @@
         <v>-21446034.01991577</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2884,20 +2506,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2922,22 +2541,21 @@
         <v>-21424496.39921577</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2964,20 +2582,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3004,20 +2619,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3044,20 +2656,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3084,20 +2693,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3122,22 +2728,21 @@
         <v>-21398846.29971577</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3162,22 +2767,21 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3202,22 +2806,21 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3242,22 +2845,21 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3282,22 +2884,21 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3322,22 +2923,21 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3362,22 +2962,21 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3402,22 +3001,21 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3442,22 +3040,21 @@
         <v>-21382572.42971577</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3482,22 +3079,21 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3522,22 +3118,21 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3564,20 +3159,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3604,20 +3196,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3644,20 +3233,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3684,20 +3270,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3724,20 +3307,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3764,20 +3344,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3804,20 +3381,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3842,22 +3416,21 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3882,22 +3455,21 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3922,22 +3494,21 @@
         <v>-21488978.25311577</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3962,22 +3533,21 @@
         <v>-21481109.71121576</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4002,22 +3572,21 @@
         <v>-21399674.44181576</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4044,20 +3613,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4084,20 +3650,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4124,20 +3687,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4164,20 +3724,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4204,20 +3761,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4242,22 +3796,19 @@
         <v>-21772927.86349554</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4282,22 +3833,19 @@
         <v>-21781413.05919554</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4324,20 +3872,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4364,20 +3909,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4402,20 +3944,19 @@
         <v>-20512156.74609554</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4440,18 +3981,19 @@
         <v>-20441387.55969554</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4476,18 +4018,19 @@
         <v>-20782119.69929554</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4512,18 +4055,17 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4548,18 +4090,15 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4584,18 +4123,15 @@
         <v>-21001284.05841621</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4620,18 +4156,15 @@
         <v>-21091306.63168631</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4656,18 +4189,15 @@
         <v>-21063656.34538632</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4692,18 +4222,15 @@
         <v>-20797252.30966762</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4728,18 +4255,15 @@
         <v>-20887411.88041132</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4764,18 +4288,15 @@
         <v>-21401896.27691131</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4800,18 +4321,15 @@
         <v>-21540397.02511131</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4838,16 +4356,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4874,16 +4389,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4910,16 +4422,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4946,16 +4455,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4980,18 +4486,15 @@
         <v>-21367486.44900564</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5018,16 +4521,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5054,16 +4554,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5090,16 +4587,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5126,16 +4620,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5162,16 +4653,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5198,16 +4686,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5234,16 +4719,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5270,16 +4752,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5306,16 +4785,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5342,16 +4818,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5378,16 +4851,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5412,18 +4882,15 @@
         <v>-21464449.21070565</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5448,18 +4915,15 @@
         <v>-21660641.24240565</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5484,18 +4948,15 @@
         <v>-21743977.67780565</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5520,18 +4981,15 @@
         <v>-21743954.67780565</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5556,18 +5014,15 @@
         <v>-21850201.90448524</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5592,18 +5047,15 @@
         <v>-22326096.67108524</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5630,16 +5082,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5666,16 +5115,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5702,16 +5148,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5738,16 +5181,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5774,16 +5214,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5810,16 +5247,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5846,16 +5280,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5882,16 +5313,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5918,16 +5346,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5954,16 +5379,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5990,16 +5412,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6026,16 +5445,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6062,16 +5478,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6098,16 +5511,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6134,16 +5544,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6170,16 +5577,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6206,16 +5610,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6242,16 +5643,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6278,16 +5676,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6314,16 +5709,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6350,16 +5742,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6386,16 +5775,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6422,16 +5808,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6458,16 +5841,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6494,16 +5874,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6530,16 +5907,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6566,16 +5940,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6602,16 +5973,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6638,16 +6006,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6674,16 +6039,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6710,16 +6072,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6746,16 +6105,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6782,16 +6138,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6818,16 +6171,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6854,16 +6204,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6890,16 +6237,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6926,16 +6270,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6962,16 +6303,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6998,16 +6336,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7034,16 +6369,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7070,16 +6402,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7106,16 +6435,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7142,16 +6468,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7178,16 +6501,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7214,16 +6534,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7250,16 +6567,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7286,16 +6600,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7320,18 +6631,21 @@
         <v>-22449512.16228525</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7356,18 +6670,21 @@
         <v>-22375043.87268525</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7394,16 +6711,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7428,18 +6746,21 @@
         <v>-22361144.87288525</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7464,18 +6785,21 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7500,18 +6824,21 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7536,18 +6863,21 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7572,18 +6902,21 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7608,18 +6941,21 @@
         <v>-22396076.50648525</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7644,18 +6980,21 @@
         <v>-22395994.50648525</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7680,18 +7019,21 @@
         <v>-22395994.50648525</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7716,18 +7058,21 @@
         <v>-22381241.52778525</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7752,18 +7097,21 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7788,18 +7136,21 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7826,16 +7177,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7862,16 +7214,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7898,16 +7251,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7932,18 +7286,21 @@
         <v>-22423962.45098525</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7968,18 +7325,21 @@
         <v>-22423941.45098525</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8004,18 +7364,21 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8040,18 +7403,21 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8076,18 +7442,21 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8112,18 +7481,21 @@
         <v>-22423899.45098525</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8148,18 +7520,21 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8184,18 +7559,21 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8220,18 +7598,21 @@
         <v>-22439684.72318525</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8256,18 +7637,21 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8292,18 +7676,21 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8328,18 +7715,21 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8364,18 +7754,21 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8400,18 +7793,21 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8436,18 +7832,21 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8472,18 +7871,21 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8508,18 +7910,21 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8544,18 +7949,21 @@
         <v>-22430971.48488525</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8580,18 +7988,21 @@
         <v>-22430950.48488525</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8616,18 +8027,21 @@
         <v>-22482896.35768525</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8652,18 +8066,21 @@
         <v>-22482875.35768525</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8688,18 +8105,21 @@
         <v>-22489474.72988525</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8724,18 +8144,21 @@
         <v>-22486492.32848525</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8760,18 +8183,21 @@
         <v>-22497582.35678525</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8796,18 +8222,21 @@
         <v>-22483470.52278525</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8832,18 +8261,21 @@
         <v>-22486284.07588525</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8868,18 +8300,21 @@
         <v>-22493218.05798525</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8904,18 +8339,21 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8940,18 +8378,21 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8976,18 +8417,21 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9012,18 +8456,21 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9048,18 +8495,21 @@
         <v>-22455313.28888525</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9084,18 +8534,21 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9120,18 +8573,21 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9158,16 +8614,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9194,16 +8651,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9230,16 +8688,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9266,16 +8725,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9302,16 +8762,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9338,16 +8799,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9374,16 +8836,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9410,16 +8873,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9446,16 +8910,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9482,16 +8947,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9518,16 +8984,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9554,16 +9021,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9590,16 +9058,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9624,18 +9093,21 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9660,18 +9132,21 @@
         <v>-21890708.02058525</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9698,16 +9173,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9734,16 +9210,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9770,16 +9247,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9806,16 +9284,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9842,16 +9321,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9878,16 +9358,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9914,16 +9395,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9950,16 +9432,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9986,16 +9469,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10022,16 +9506,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10058,16 +9543,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10094,16 +9580,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10128,18 +9615,21 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10164,18 +9654,21 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10200,18 +9693,21 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10238,16 +9734,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10274,16 +9771,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10310,16 +9808,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10346,16 +9845,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10380,24 +9880,19 @@
         <v>-21721796.94728525</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10422,24 +9917,19 @@
         <v>-21733578.97038525</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10464,24 +9954,19 @@
         <v>-21730604.65638525</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10506,24 +9991,19 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10548,24 +10028,19 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10590,24 +10065,21 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
         <v>25.1</v>
       </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10632,24 +10104,21 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="n">
         <v>25.1</v>
       </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10674,22 +10143,21 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10714,22 +10182,21 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10756,20 +10223,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10796,20 +10260,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10836,20 +10297,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10876,22 +10334,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2167,17 +2167,11 @@
         <v>-21473267.71723618</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2432,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2465,17 +2431,11 @@
         <v>-21446034.01991577</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>25.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2541,17 +2497,11 @@
         <v>-21424496.39921577</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2658,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2728,17 +2662,11 @@
         <v>-21398846.29971577</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2767,17 +2695,11 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2806,17 +2728,11 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>25.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2845,17 +2761,11 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>25.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2884,17 +2794,11 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2923,17 +2827,11 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2962,17 +2860,11 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3001,17 +2893,11 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3040,17 +2926,11 @@
         <v>-21382572.42971577</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3079,17 +2959,11 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3118,17 +2992,11 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3161,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3198,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3235,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3272,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3383,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3416,17 +3256,11 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3455,17 +3289,11 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3494,17 +3322,11 @@
         <v>-21488978.25311577</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3533,17 +3355,11 @@
         <v>-21481109.71121576</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3572,17 +3388,11 @@
         <v>-21399674.44181576</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3615,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3689,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3796,15 +3586,11 @@
         <v>-21772927.86349554</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3833,15 +3619,11 @@
         <v>-21781413.05919554</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3874,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3911,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3944,15 +3718,11 @@
         <v>-20512156.74609554</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3981,15 +3751,11 @@
         <v>-20441387.55969554</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4018,15 +3784,11 @@
         <v>-20782119.69929554</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4055,16 +3817,14 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4090,7 +3850,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4123,7 +3883,7 @@
         <v>-21001284.05841621</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4156,7 +3916,7 @@
         <v>-21091306.63168631</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4189,7 +3949,7 @@
         <v>-21063656.34538632</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4222,7 +3982,7 @@
         <v>-20797252.30966762</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4255,7 +4015,7 @@
         <v>-20887411.88041132</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4288,7 +4048,7 @@
         <v>-21401896.27691131</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4321,7 +4081,7 @@
         <v>-21540397.02511131</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4387,11 +4147,17 @@
         <v>-21727956.62730564</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +4186,17 @@
         <v>-21469000.77610564</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>25.4</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4225,17 @@
         <v>-21438159.27310564</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4488,9 +4266,15 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>26</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4519,11 +4303,17 @@
         <v>-21399764.53580565</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4342,17 @@
         <v>-21399764.53580565</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4585,11 +4381,17 @@
         <v>-21220541.02610565</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4618,11 +4420,17 @@
         <v>-21088526.56770565</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4459,17 @@
         <v>-21088526.56770565</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4684,11 +4498,17 @@
         <v>-21109910.58160565</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4717,11 +4537,17 @@
         <v>-21109888.58160565</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4754,7 +4580,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4787,7 +4617,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4820,7 +4654,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4849,11 +4687,17 @@
         <v>-21474449.21070565</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>25</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4726,15 @@
         <v>-21464449.21070565</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +4763,15 @@
         <v>-21660641.24240565</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4948,11 +4800,15 @@
         <v>-21743977.67780565</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4981,11 +4837,15 @@
         <v>-21743954.67780565</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5014,11 +4874,15 @@
         <v>-21850201.90448524</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5047,11 +4911,15 @@
         <v>-22326096.67108524</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5084,7 +4952,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5117,7 +4989,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5150,7 +5026,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5063,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5216,7 +5100,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5249,7 +5137,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5282,7 +5174,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5315,7 +5211,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5348,7 +5248,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5381,7 +5285,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5414,7 +5322,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5447,7 +5359,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5480,7 +5396,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5513,7 +5433,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5546,7 +5470,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5579,7 +5507,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5612,7 +5544,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5645,7 +5581,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5678,7 +5618,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5711,7 +5655,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5744,7 +5692,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5777,7 +5729,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5810,7 +5766,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5843,7 +5803,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5876,7 +5840,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5909,7 +5877,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +5914,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5975,7 +5951,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6008,7 +5988,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6041,7 +6025,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6074,7 +6062,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6107,7 +6099,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6140,7 +6136,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6173,7 +6173,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6206,7 +6210,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6239,7 +6247,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6272,7 +6284,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6305,7 +6321,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6358,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6371,7 +6395,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6404,7 +6432,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6437,7 +6469,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6470,7 +6506,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6503,7 +6543,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6536,7 +6580,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6569,7 +6617,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6602,7 +6654,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6631,15 +6687,13 @@
         <v>-22449512.16228525</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6670,11 +6724,9 @@
         <v>-22375043.87268525</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6709,9 +6761,11 @@
         <v>-22375043.87268525</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6746,11 +6800,9 @@
         <v>-22361144.87288525</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6785,11 +6837,9 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6824,11 +6874,9 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6863,7 +6911,7 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>24.4</v>
@@ -6902,11 +6950,9 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6941,7 +6987,7 @@
         <v>-22396076.50648525</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>24.4</v>
@@ -6980,7 +7026,7 @@
         <v>-22395994.50648525</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>24.2</v>
@@ -7019,7 +7065,7 @@
         <v>-22395994.50648525</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>24.3</v>
@@ -7058,11 +7104,9 @@
         <v>-22381241.52778525</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7097,11 +7141,9 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7136,11 +7178,9 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7286,11 +7326,9 @@
         <v>-22423962.45098525</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7325,11 +7363,9 @@
         <v>-22423941.45098525</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7364,11 +7400,9 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7403,11 +7437,9 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7442,11 +7474,9 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7481,11 +7511,9 @@
         <v>-22423899.45098525</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7520,11 +7548,9 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7559,11 +7585,9 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7598,11 +7622,9 @@
         <v>-22439684.72318525</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7637,11 +7659,9 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7676,11 +7696,9 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7715,11 +7733,9 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7754,11 +7770,9 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7793,11 +7807,9 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7832,11 +7844,9 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7871,11 +7881,9 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -7910,11 +7918,9 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7949,11 +7955,9 @@
         <v>-22430971.48488525</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7988,11 +7992,9 @@
         <v>-22430950.48488525</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8027,11 +8029,9 @@
         <v>-22482896.35768525</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8066,11 +8066,9 @@
         <v>-22482875.35768525</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8105,11 +8103,9 @@
         <v>-22489474.72988525</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8144,11 +8140,9 @@
         <v>-22486492.32848525</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8183,11 +8177,9 @@
         <v>-22497582.35678525</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8222,11 +8214,9 @@
         <v>-22483470.52278525</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8261,11 +8251,9 @@
         <v>-22486284.07588525</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8300,11 +8288,9 @@
         <v>-22493218.05798525</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8339,11 +8325,9 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8378,11 +8362,9 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8417,11 +8399,9 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8456,11 +8436,9 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8495,11 +8473,9 @@
         <v>-22455313.28888525</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8534,11 +8510,9 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8573,11 +8547,9 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9093,11 +9065,9 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9132,11 +9102,9 @@
         <v>-21890708.02058525</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9541,9 +9509,11 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9578,9 +9548,11 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9615,7 +9587,7 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>25.5</v>
@@ -9654,7 +9626,7 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>25.5</v>
@@ -9693,7 +9665,7 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>25.7</v>
@@ -9732,9 +9704,11 @@
         <v>-21818110.14028525</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>25.7</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9769,9 +9743,11 @@
         <v>-21679819.62878525</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>25</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9806,9 +9782,11 @@
         <v>-21692656.13328525</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>25.5</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9843,9 +9821,11 @@
         <v>-21760164.91718525</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>25.3</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9880,9 +9860,11 @@
         <v>-21721796.94728525</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>24.8</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9917,9 +9899,11 @@
         <v>-21733578.97038525</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>25.4</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9954,9 +9938,11 @@
         <v>-21730604.65638525</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9991,9 +9977,11 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>24.9</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10028,9 +10016,11 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10065,7 +10055,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>25.1</v>
@@ -10104,7 +10094,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>25.1</v>
@@ -10143,7 +10133,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>25.3</v>
@@ -10182,7 +10172,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>25.3</v>
@@ -10221,9 +10211,11 @@
         <v>-21696337.80128526</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>25.3</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10258,9 +10250,11 @@
         <v>-21697358.80128526</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10295,9 +10289,11 @@
         <v>-21670995.41858526</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>25.5</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10347,6 +10343,6 @@
       <c r="M279" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3124,7 +3124,7 @@
         <v>-21366742.24601576</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-21408014.69371577</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-21399674.44181576</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-21772927.86349554</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-21781413.05919554</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-21207893.92929554</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-20295383.78419554</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-21001284.05841621</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-21091306.63168631</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-21063656.34538632</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-20797252.30966762</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-20887411.88041132</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,1445 +4147,1271 @@
         <v>-21727956.62730564</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>258955.8512</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-21469000.77610564</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>26</v>
+      </c>
+      <c r="C116" t="n">
+        <v>26</v>
+      </c>
+      <c r="D116" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>26</v>
+      </c>
+      <c r="F116" t="n">
+        <v>30841.503</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-21438159.27310564</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C117" t="n">
         <v>26.1</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+      <c r="D117" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>70672.8241</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-21367486.44900564</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>26</v>
+      </c>
+      <c r="C118" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26</v>
+      </c>
+      <c r="E118" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>32278.0868</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-21399764.53580565</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>26</v>
+      </c>
+      <c r="C119" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D119" t="n">
+        <v>26</v>
+      </c>
+      <c r="E119" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>361.0692</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-21399764.53580565</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>179223.5097</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-21220541.02610565</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>132014.4584</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-21088526.56770565</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>26</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7276.9443</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-21088526.56770565</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>26</v>
+      </c>
+      <c r="C123" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>26</v>
+      </c>
+      <c r="E123" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21384.0139</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-21109910.58160565</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>22</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-21109888.58160565</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18006.5627</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-21127895.14430565</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>23505.5154</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-21127895.14430565</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>25</v>
+      </c>
+      <c r="D127" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>25</v>
+      </c>
+      <c r="F127" t="n">
+        <v>397610.6667</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-21525505.81100565</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>51056.6003</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-21474449.21070565</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-21464449.21070565</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>196192.0317</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-21660641.24240565</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>25</v>
+      </c>
+      <c r="D131" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>25</v>
+      </c>
+      <c r="F131" t="n">
+        <v>83336.4354</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-21743977.67780565</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-21743954.67780565</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>25</v>
+      </c>
+      <c r="C133" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>25</v>
+      </c>
+      <c r="E133" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>106247.22667959</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-21850201.90448524</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>475894.7666</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-22326096.67108524</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>202043.9623</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-22124052.70878524</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>206019.9384</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-22330072.64718524</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15437.87</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-22345510.51718524</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>239327.512</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-22106183.00518525</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>255.4018</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-22106183.00518525</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>23</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-22106206.00518525</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>37775.8129</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-22068430.19228525</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>793.65</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-22067636.54228525</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>26</v>
+      </c>
+      <c r="C143" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>26</v>
+      </c>
+      <c r="E143" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>27492.6885</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-22095129.23078525</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1776.4971</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-22096905.72788525</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>532.4032</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-22096373.32468525</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>31072.5782</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-22127445.90288525</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>781.25</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-22126664.65288525</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>223</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-22126441.65288525</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4978.475</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-22131420.12788525</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9404.856</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-22131420.12788525</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11078.3172</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-22142498.44508525</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18069.1138</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-22124429.33128525</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>258955.8512</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-21469000.77610564</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>26</v>
-      </c>
-      <c r="C116" t="n">
-        <v>26</v>
-      </c>
-      <c r="D116" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>26</v>
-      </c>
-      <c r="F116" t="n">
-        <v>30841.503</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-21438159.27310564</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C117" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F117" t="n">
-        <v>70672.8241</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-21367486.44900564</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>26</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>26</v>
-      </c>
-      <c r="C118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>26</v>
-      </c>
-      <c r="E118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F118" t="n">
-        <v>32278.0868</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-21399764.53580565</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>26</v>
-      </c>
-      <c r="C119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D119" t="n">
-        <v>26</v>
-      </c>
-      <c r="E119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F119" t="n">
-        <v>361.0692</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-21399764.53580565</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>179223.5097</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-21220541.02610565</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>132014.4584</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-21088526.56770565</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>26</v>
-      </c>
-      <c r="F122" t="n">
-        <v>7276.9443</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-21088526.56770565</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>26</v>
-      </c>
-      <c r="C123" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>26</v>
-      </c>
-      <c r="E123" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>21384.0139</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-21109910.58160565</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>22</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-21109888.58160565</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D125" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>18006.5627</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-21127895.14430565</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>23505.5154</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-21127895.14430565</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>25</v>
-      </c>
-      <c r="D127" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>25</v>
-      </c>
-      <c r="F127" t="n">
-        <v>397610.6667</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-21525505.81100565</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C128" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>51056.6003</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-21474449.21070565</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>25</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-21464449.21070565</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>196192.0317</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-21660641.24240565</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>25</v>
-      </c>
-      <c r="D131" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E131" t="n">
-        <v>25</v>
-      </c>
-      <c r="F131" t="n">
-        <v>83336.4354</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-21743977.67780565</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>23</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-21743954.67780565</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>25</v>
-      </c>
-      <c r="C133" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>25</v>
-      </c>
-      <c r="E133" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>106247.22667959</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-21850201.90448524</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="C134" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>475894.7666</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-22326096.67108524</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>202043.9623</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-22124052.70878524</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>26</v>
-      </c>
-      <c r="C136" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>206019.9384</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-22330072.64718524</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C137" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D137" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E137" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F137" t="n">
-        <v>15437.87</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-22345510.51718524</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C138" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>239327.512</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-22106183.00518525</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>255.4018</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-22106183.00518525</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C140" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>23</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-22106206.00518525</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>37775.8129</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-22068430.19228525</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>793.65</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-22067636.54228525</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>26</v>
-      </c>
-      <c r="C143" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>26</v>
-      </c>
-      <c r="E143" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>27492.6885</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-22095129.23078525</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1776.4971</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-22096905.72788525</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C145" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F145" t="n">
-        <v>532.4032</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-22096373.32468525</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C146" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>31072.5782</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-22127445.90288525</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>781.25</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-22126664.65288525</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>223</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-22126441.65288525</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>4978.475</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-22131420.12788525</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>9404.856</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-22131420.12788525</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>11078.3172</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-22142498.44508525</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C152" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>18069.1138</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-22124429.33128525</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5614,9 +5440,11 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>25.7</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5651,9 +5479,11 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>25.4</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5688,9 +5518,11 @@
         <v>-22037008.96348525</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>25.4</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6724,9 +6556,11 @@
         <v>-22375043.87268525</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6800,9 +6634,11 @@
         <v>-22361144.87288525</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6837,9 +6673,11 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6874,9 +6712,11 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6950,9 +6790,11 @@
         <v>-22365772.68488525</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7104,9 +6946,11 @@
         <v>-22381241.52778525</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7141,9 +6985,11 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7178,9 +7024,11 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7215,9 +7063,11 @@
         <v>-22376190.33228525</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7252,9 +7102,11 @@
         <v>-22384375.66698525</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7289,9 +7141,11 @@
         <v>-22373137.72688525</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7326,9 +7180,11 @@
         <v>-22423962.45098525</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7363,9 +7219,11 @@
         <v>-22423941.45098525</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7400,9 +7258,11 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7437,9 +7297,11 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7585,9 +7447,11 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7992,9 +7856,11 @@
         <v>-22430950.48488525</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8140,9 +8006,11 @@
         <v>-22486492.32848525</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8695,18 +8563,16 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -8732,15 +8598,11 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8769,15 +8631,11 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8806,15 +8664,11 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8843,15 +8697,11 @@
         <v>-21878906.65048525</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8880,15 +8730,11 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8917,15 +8763,11 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8954,15 +8796,11 @@
         <v>-21941471.25768525</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8995,11 +8833,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +8866,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8899,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8932,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +8965,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8998,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +9031,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +9064,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +9097,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9130,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9361,15 +9159,11 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9398,15 +9192,11 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9435,15 +9225,11 @@
         <v>-21763904.06628525</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9472,15 +9258,11 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9509,17 +9291,11 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>25.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9548,17 +9324,11 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>25.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9587,17 +9357,11 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>25.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9626,17 +9390,11 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>25.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9665,17 +9423,11 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>25.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9704,17 +9456,11 @@
         <v>-21818110.14028525</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>25.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9743,17 +9489,11 @@
         <v>-21679819.62878525</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9782,17 +9522,11 @@
         <v>-21692656.13328525</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>25.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9821,17 +9555,11 @@
         <v>-21760164.91718525</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9860,17 +9588,11 @@
         <v>-21721796.94728525</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9899,17 +9621,11 @@
         <v>-21733578.97038525</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9938,17 +9654,11 @@
         <v>-21730604.65638525</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9977,17 +9687,11 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10016,17 +9720,11 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10055,17 +9753,11 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10094,17 +9786,11 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10133,17 +9819,11 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10172,17 +9852,11 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>25.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10211,17 +9885,11 @@
         <v>-21696337.80128526</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>25.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10250,17 +9918,11 @@
         <v>-21697358.80128526</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>25.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10289,17 +9951,11 @@
         <v>-21670995.41858526</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>25.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10328,21 +9984,17 @@
         <v>-21698866.66668526</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
       <c r="M279" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -2662,10 +2662,14 @@
         <v>-21398846.29971577</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>25.3</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2699,19 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2740,19 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,10 +2781,14 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>25.5</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +2818,19 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2859,19 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2900,14 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2893,11 +2937,19 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2978,19 @@
         <v>-21382572.42971577</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,10 +3019,14 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>25.8</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -2992,11 +3056,19 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>26</v>
+      </c>
+      <c r="J79" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,10 +3136,14 @@
         <v>-21343004.34251577</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26</v>
+      </c>
+      <c r="J81" t="n">
+        <v>26</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3094,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>26</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3212,17 @@
         <v>-21366742.24601576</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>26</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3251,17 @@
         <v>-21408014.69371577</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>26</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3290,19 @@
         <v>-21459963.45981577</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>26</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3331,19 @@
         <v>-21522999.35191577</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>26</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3372,19 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+      <c r="J87" t="n">
+        <v>26</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3413,19 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>26</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3454,19 @@
         <v>-21488978.25311577</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>26</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3495,19 @@
         <v>-21481109.71121576</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>26</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3536,17 @@
         <v>-21399674.44181576</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>26</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3575,17 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>26</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3614,17 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>26</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3653,17 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>26</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3692,17 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>26</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3731,17 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>26</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3770,17 @@
         <v>-21772927.86349554</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>26</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3809,17 @@
         <v>-21781413.05919554</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3848,17 @@
         <v>-21207893.92929554</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>26</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3887,17 @@
         <v>-20295383.78419554</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>26</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,15 +3926,23 @@
         <v>-20512156.74609554</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>26</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>1.118076923076923</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.096234309623431</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3751,7 +3967,7 @@
         <v>-20441387.55969554</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4000,7 @@
         <v>-20782119.69929554</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4033,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4066,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4099,7 @@
         <v>-21001284.05841621</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4132,7 @@
         <v>-21091306.63168631</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4165,7 @@
         <v>-21063656.34538632</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5401,17 +5617,11 @@
         <v>-22124429.33128525</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5440,17 +5650,11 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5479,17 +5683,11 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5518,17 +5716,11 @@
         <v>-22037008.96348525</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5753,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5786,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5819,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5672,11 +5852,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +5885,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5918,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5951,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5984,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5857,11 +6017,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +6050,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5931,11 +6083,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5968,11 +6116,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +6149,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6042,11 +6182,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +6215,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +6248,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +6281,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6190,11 +6314,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6347,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +6380,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6301,11 +6413,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6338,11 +6446,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6375,11 +6479,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6412,11 +6512,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +6545,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6482,15 +6574,15 @@
         <v>-22433469.30688525</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J181" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6519,13 +6611,17 @@
         <v>-22449512.16228525</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J182" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6561,7 +6657,9 @@
       <c r="I183" t="n">
         <v>24.2</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6600,7 +6698,9 @@
       <c r="I184" t="n">
         <v>24.4</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,7 +6739,9 @@
       <c r="I185" t="n">
         <v>24.4</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,7 +6780,9 @@
       <c r="I186" t="n">
         <v>24.5</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6717,7 +6821,9 @@
       <c r="I187" t="n">
         <v>24.4</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,7 +6862,9 @@
       <c r="I188" t="n">
         <v>24.4</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,7 +6903,9 @@
       <c r="I189" t="n">
         <v>24.4</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,7 +6944,9 @@
       <c r="I190" t="n">
         <v>24.4</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,7 +6985,9 @@
       <c r="I191" t="n">
         <v>24.2</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,7 +7026,9 @@
       <c r="I192" t="n">
         <v>24.3</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,7 +7067,9 @@
       <c r="I193" t="n">
         <v>24.3</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6990,7 +7108,9 @@
       <c r="I194" t="n">
         <v>24.6</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7029,7 +7149,9 @@
       <c r="I195" t="n">
         <v>24.7</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,7 +7190,9 @@
       <c r="I196" t="n">
         <v>24.7</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,7 +7231,9 @@
       <c r="I197" t="n">
         <v>24.5</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7146,7 +7272,9 @@
       <c r="I198" t="n">
         <v>24.4</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7185,7 +7313,9 @@
       <c r="I199" t="n">
         <v>24.6</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,7 +7354,9 @@
       <c r="I200" t="n">
         <v>24.2</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,7 +7395,9 @@
       <c r="I201" t="n">
         <v>24.4</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7302,7 +7436,9 @@
       <c r="I202" t="n">
         <v>24.5</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,10 +7472,14 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J203" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,10 +7513,14 @@
         <v>-22423899.45098525</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J204" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,10 +7554,14 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J205" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7452,7 +7600,9 @@
       <c r="I206" t="n">
         <v>24.3</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7486,10 +7636,14 @@
         <v>-22439684.72318525</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J207" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7523,10 +7677,14 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,10 +7718,14 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J209" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7597,10 +7759,14 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J210" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7634,10 +7800,14 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J211" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7671,10 +7841,14 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J212" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7708,10 +7882,14 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J213" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7745,10 +7923,14 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J214" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,10 +7964,14 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="J215" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7819,10 +8005,14 @@
         <v>-22430971.48488525</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="J216" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,7 +8051,9 @@
       <c r="I217" t="n">
         <v>24.2</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7895,10 +8087,14 @@
         <v>-22482896.35768525</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J218" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,10 +8128,14 @@
         <v>-22482875.35768525</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,10 +8169,14 @@
         <v>-22489474.72988525</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J220" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8011,7 +8215,9 @@
       <c r="I221" t="n">
         <v>24.3</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8045,10 +8251,14 @@
         <v>-22497582.35678525</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J222" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8082,10 +8292,14 @@
         <v>-22483470.52278525</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J223" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,10 +8333,14 @@
         <v>-22486284.07588525</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J224" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,10 +8374,14 @@
         <v>-22493218.05798525</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J225" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,10 +8415,14 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J226" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8230,10 +8456,14 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8267,10 +8497,14 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,10 +8538,14 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J229" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8341,10 +8579,14 @@
         <v>-22455313.28888525</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J230" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,10 +8620,14 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="J231" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,10 +8661,14 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>26</v>
+      </c>
+      <c r="J232" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8452,10 +8702,14 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>26</v>
+      </c>
+      <c r="J233" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,10 +8743,14 @@
         <v>-21908911.82718525</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>26</v>
+      </c>
+      <c r="J234" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,10 +8784,14 @@
         <v>-21791775.38508525</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,16 +8825,20 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
       <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -8598,11 +8864,17 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8631,11 +8903,17 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8664,11 +8942,17 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8697,11 +8981,17 @@
         <v>-21878906.65048525</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8730,11 +9020,17 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +9059,19 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J242" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8796,11 +9100,19 @@
         <v>-21941471.25768525</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J243" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +9141,19 @@
         <v>-21938466.39408525</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J244" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8862,11 +9182,19 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J245" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +9223,19 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J246" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8928,11 +9264,19 @@
         <v>-21890708.02058525</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J247" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8964,8 +9308,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8997,8 +9347,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9027,11 +9383,19 @@
         <v>-21744406.83438525</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J250" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9063,8 +9427,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9093,11 +9463,19 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9126,11 +9504,19 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9159,11 +9545,19 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9192,11 +9586,19 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9225,11 +9627,19 @@
         <v>-21763904.06628525</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9258,11 +9668,19 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J257" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +9709,19 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J258" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +9750,19 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J259" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9357,11 +9791,19 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J260" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9390,11 +9832,19 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J261" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +9873,19 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J262" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9456,11 +9914,19 @@
         <v>-21818110.14028525</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J263" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +9955,19 @@
         <v>-21679819.62878525</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>25</v>
+      </c>
+      <c r="J264" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9522,11 +9996,19 @@
         <v>-21692656.13328525</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J265" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9555,11 +10037,19 @@
         <v>-21760164.91718525</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J266" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9588,11 +10078,19 @@
         <v>-21721796.94728525</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J267" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +10119,19 @@
         <v>-21733578.97038525</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J268" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9654,11 +10160,19 @@
         <v>-21730604.65638525</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J269" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9687,11 +10201,19 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="J270" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9720,11 +10242,19 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +10283,19 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9786,11 +10324,19 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9819,11 +10365,19 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9852,11 +10406,19 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9885,11 +10447,17 @@
         <v>-21696337.80128526</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9918,11 +10486,19 @@
         <v>-21697358.80128526</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J277" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9951,11 +10527,17 @@
         <v>-21670995.41858526</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9984,11 +10566,17 @@
         <v>-21698866.66668526</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-18 BackTest CHR.xlsx
+++ b/BackTest/2019-11-18 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M279"/>
+  <dimension ref="A1:L279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>86016665.81900001</v>
       </c>
       <c r="G2" t="n">
-        <v>-28757465.495</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>86016665.81900001</v>
       </c>
       <c r="G3" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>86619651.5139</v>
       </c>
       <c r="G4" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>87814923.641</v>
       </c>
       <c r="G5" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,19 @@
         <v>87211937.9461</v>
       </c>
       <c r="G6" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,23 @@
         <v>85716956.182</v>
       </c>
       <c r="G7" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +655,23 @@
         <v>87814923.641</v>
       </c>
       <c r="G8" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +693,19 @@
         <v>87818490.0619</v>
       </c>
       <c r="G9" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +727,23 @@
         <v>87814923.641</v>
       </c>
       <c r="G10" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +765,23 @@
         <v>86016665.81900001</v>
       </c>
       <c r="G11" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +803,19 @@
         <v>87215504.367</v>
       </c>
       <c r="G12" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +837,23 @@
         <v>86312809.0351</v>
       </c>
       <c r="G13" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +875,23 @@
         <v>86616085.09299999</v>
       </c>
       <c r="G14" t="n">
-        <v>-28757465.495</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +913,23 @@
         <v>7196618.7089</v>
       </c>
       <c r="G15" t="n">
-        <v>-21560846.7861</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +951,23 @@
         <v>35756.3388</v>
       </c>
       <c r="G16" t="n">
-        <v>-21560846.7861</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>24.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +989,23 @@
         <v>40200.5642</v>
       </c>
       <c r="G17" t="n">
-        <v>-21520646.2219</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>24.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1027,23 @@
         <v>6907.6273</v>
       </c>
       <c r="G18" t="n">
-        <v>-21520646.2219</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>24.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1065,23 @@
         <v>29514.34105</v>
       </c>
       <c r="G19" t="n">
-        <v>-21491131.88085</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>24.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1103,23 @@
         <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>-21491131.88085</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1141,23 @@
         <v>38128.8183</v>
       </c>
       <c r="G21" t="n">
-        <v>-21529260.69915</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1179,23 @@
         <v>10007.6273</v>
       </c>
       <c r="G22" t="n">
-        <v>-21519253.07185</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>24.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1217,23 @@
         <v>18080.8533</v>
       </c>
       <c r="G23" t="n">
-        <v>-21519253.07185</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1255,21 @@
         <v>1606.35965</v>
       </c>
       <c r="G24" t="n">
-        <v>-21519253.07185</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1291,23 @@
         <v>9552.448979590001</v>
       </c>
       <c r="G25" t="n">
-        <v>-21509700.62287041</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1329,23 @@
         <v>35215.9472</v>
       </c>
       <c r="G26" t="n">
-        <v>-21509700.62287041</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>24.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1367,23 @@
         <v>2339.7954</v>
       </c>
       <c r="G27" t="n">
-        <v>-21509700.62287041</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>24.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1405,21 @@
         <v>3488</v>
       </c>
       <c r="G28" t="n">
-        <v>-21513188.62287041</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1441,23 @@
         <v>2213.61742041</v>
       </c>
       <c r="G29" t="n">
-        <v>-21510975.00545</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1479,21 @@
         <v>18576.3372</v>
       </c>
       <c r="G30" t="n">
-        <v>-21510975.00545</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1515,21 @@
         <v>20000</v>
       </c>
       <c r="G31" t="n">
-        <v>-21510975.00545</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1551,21 @@
         <v>1972.1627</v>
       </c>
       <c r="G32" t="n">
-        <v>-21510975.00545</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1587,23 @@
         <v>53.15097959</v>
       </c>
       <c r="G33" t="n">
-        <v>-21511028.15642959</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>24.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1625,23 @@
         <v>1972.1627</v>
       </c>
       <c r="G34" t="n">
-        <v>-21513000.31912959</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1663,23 @@
         <v>6160.5686</v>
       </c>
       <c r="G35" t="n">
-        <v>-21506839.75052959</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1701,23 @@
         <v>17956.449</v>
       </c>
       <c r="G36" t="n">
-        <v>-21524796.1995296</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1739,23 @@
         <v>4929</v>
       </c>
       <c r="G37" t="n">
-        <v>-21519867.1995296</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>24.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1777,23 @@
         <v>21</v>
       </c>
       <c r="G38" t="n">
-        <v>-21519846.1995296</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1815,23 @@
         <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>-21519896.1995296</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>24.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1853,23 @@
         <v>45000</v>
       </c>
       <c r="G40" t="n">
-        <v>-21564896.1995296</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>24.7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1891,23 @@
         <v>22</v>
       </c>
       <c r="G41" t="n">
-        <v>-21564874.1995296</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>24.1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1929,23 @@
         <v>3022.541</v>
       </c>
       <c r="G42" t="n">
-        <v>-21567896.7405296</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>24.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1967,23 @@
         <v>1651.44880658</v>
       </c>
       <c r="G43" t="n">
-        <v>-21569548.18933618</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>24.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +2005,23 @@
         <v>46424.8273</v>
       </c>
       <c r="G44" t="n">
-        <v>-21615973.01663618</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>24.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2043,23 @@
         <v>5310.5983</v>
       </c>
       <c r="G45" t="n">
-        <v>-21610662.41833618</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>24.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2081,21 @@
         <v>3121.749</v>
       </c>
       <c r="G46" t="n">
-        <v>-21613784.16733618</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2117,23 @@
         <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>-21613784.16733618</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>24.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2155,21 @@
         <v>22426.2986</v>
       </c>
       <c r="G48" t="n">
-        <v>-21591357.86873618</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2191,21 @@
         <v>3266.7627</v>
       </c>
       <c r="G49" t="n">
-        <v>-21588091.10603618</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2227,21 @@
         <v>116311.3789</v>
       </c>
       <c r="G50" t="n">
-        <v>-21588091.10603618</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2263,21 @@
         <v>11641.0452</v>
       </c>
       <c r="G51" t="n">
-        <v>-21588091.10603618</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2299,21 @@
         <v>4905.5755</v>
       </c>
       <c r="G52" t="n">
-        <v>-21588091.10603618</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2335,21 @@
         <v>93640.1317</v>
       </c>
       <c r="G53" t="n">
-        <v>-21494450.97433618</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2371,21 @@
         <v>21183.2571</v>
       </c>
       <c r="G54" t="n">
-        <v>-21473267.71723618</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2407,21 @@
         <v>6766.3792</v>
       </c>
       <c r="G55" t="n">
-        <v>-21473267.71723618</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2443,21 @@
         <v>63618.93312041</v>
       </c>
       <c r="G56" t="n">
-        <v>-21409648.78411577</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2479,21 @@
         <v>923.5403</v>
       </c>
       <c r="G57" t="n">
-        <v>-21409648.78411577</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2515,21 @@
         <v>3121</v>
       </c>
       <c r="G58" t="n">
-        <v>-21409648.78411577</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2551,21 @@
         <v>6523.2516</v>
       </c>
       <c r="G59" t="n">
-        <v>-21416172.03571577</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2587,21 @@
         <v>29861.9842</v>
       </c>
       <c r="G60" t="n">
-        <v>-21446034.01991577</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2623,21 @@
         <v>6521.0372</v>
       </c>
       <c r="G61" t="n">
-        <v>-21446034.01991577</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2659,21 @@
         <v>3440.8307</v>
       </c>
       <c r="G62" t="n">
-        <v>-21446034.01991577</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2695,21 @@
         <v>21537.6207</v>
       </c>
       <c r="G63" t="n">
-        <v>-21424496.39921577</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2731,21 @@
         <v>4942.0381</v>
       </c>
       <c r="G64" t="n">
-        <v>-21424496.39921577</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2767,21 @@
         <v>49736.0996</v>
       </c>
       <c r="G65" t="n">
-        <v>-21424496.39921577</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2803,21 @@
         <v>2651.4488</v>
       </c>
       <c r="G66" t="n">
-        <v>-21427147.84801577</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2839,21 @@
         <v>2669.0557</v>
       </c>
       <c r="G67" t="n">
-        <v>-21427147.84801577</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2875,21 @@
         <v>17763.1107</v>
       </c>
       <c r="G68" t="n">
-        <v>-21409384.73731577</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,22 +2911,21 @@
         <v>10538.4376</v>
       </c>
       <c r="G69" t="n">
-        <v>-21398846.29971577</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2696,26 +2947,21 @@
         <v>183.1635</v>
       </c>
       <c r="G70" t="n">
-        <v>-21398663.13621577</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2737,26 +2983,21 @@
         <v>91538.46120000001</v>
       </c>
       <c r="G71" t="n">
-        <v>-21398663.13621577</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2778,22 +3019,21 @@
         <v>4961.1045</v>
       </c>
       <c r="G72" t="n">
-        <v>-21393702.03171577</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2815,26 +3055,21 @@
         <v>19175.2072</v>
       </c>
       <c r="G73" t="n">
-        <v>-21393702.03171577</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2856,26 +3091,21 @@
         <v>46.1226</v>
       </c>
       <c r="G74" t="n">
-        <v>-21393702.03171577</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2897,22 +3127,21 @@
         <v>139.3661</v>
       </c>
       <c r="G75" t="n">
-        <v>-21393702.03171577</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2934,26 +3163,21 @@
         <v>445.5373</v>
       </c>
       <c r="G76" t="n">
-        <v>-21393702.03171577</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2975,26 +3199,21 @@
         <v>11129.602</v>
       </c>
       <c r="G77" t="n">
-        <v>-21382572.42971577</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3016,22 +3235,21 @@
         <v>29024.3523</v>
       </c>
       <c r="G78" t="n">
-        <v>-21353548.07741577</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3053,26 +3271,21 @@
         <v>3301.5039</v>
       </c>
       <c r="G79" t="n">
-        <v>-21353548.07741577</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>26</v>
-      </c>
-      <c r="J79" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3094,24 +3307,21 @@
         <v>68348.3931</v>
       </c>
       <c r="G80" t="n">
-        <v>-21353548.07741577</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3133,22 +3343,21 @@
         <v>10543.7349</v>
       </c>
       <c r="G81" t="n">
-        <v>-21343004.34251577</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>26</v>
-      </c>
-      <c r="J81" t="n">
-        <v>26</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3170,24 +3379,21 @@
         <v>747.3576</v>
       </c>
       <c r="G82" t="n">
-        <v>-21343004.34251577</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>26</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3209,24 +3415,21 @@
         <v>23737.9035</v>
       </c>
       <c r="G83" t="n">
-        <v>-21366742.24601576</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>26</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3248,24 +3451,21 @@
         <v>41272.4477</v>
       </c>
       <c r="G84" t="n">
-        <v>-21408014.69371577</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>26</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3287,26 +3487,21 @@
         <v>51948.7661</v>
       </c>
       <c r="G85" t="n">
-        <v>-21459963.45981577</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>26</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>23.9</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3328,26 +3523,21 @@
         <v>63035.8921</v>
       </c>
       <c r="G86" t="n">
-        <v>-21522999.35191577</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>26</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>23.9</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3369,26 +3559,21 @@
         <v>33622.6674</v>
       </c>
       <c r="G87" t="n">
-        <v>-21489376.68451577</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>26</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>23.9</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3410,26 +3595,21 @@
         <v>33190.6886</v>
       </c>
       <c r="G88" t="n">
-        <v>-21489376.68451577</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>26</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>23.9</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3451,26 +3631,21 @@
         <v>398.4314</v>
       </c>
       <c r="G89" t="n">
-        <v>-21488978.25311577</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>26</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>23.9</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3492,26 +3667,21 @@
         <v>7868.5419</v>
       </c>
       <c r="G90" t="n">
-        <v>-21481109.71121576</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>26</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>23.9</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3533,24 +3703,21 @@
         <v>81435.2694</v>
       </c>
       <c r="G91" t="n">
-        <v>-21399674.44181576</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>26</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3572,24 +3739,21 @@
         <v>145965.41672022</v>
       </c>
       <c r="G92" t="n">
-        <v>-21253709.02509554</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>26</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3611,24 +3775,21 @@
         <v>181032.07827978</v>
       </c>
       <c r="G93" t="n">
-        <v>-21253709.02509554</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>26</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3650,24 +3811,21 @@
         <v>185338.0018</v>
       </c>
       <c r="G94" t="n">
-        <v>-21253709.02509554</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>26</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3689,24 +3847,21 @@
         <v>159697.5467</v>
       </c>
       <c r="G95" t="n">
-        <v>-21094011.47839554</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>26</v>
-      </c>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3728,24 +3883,21 @@
         <v>148994.0558</v>
       </c>
       <c r="G96" t="n">
-        <v>-21094011.47839554</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>26</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3767,24 +3919,21 @@
         <v>678916.3851</v>
       </c>
       <c r="G97" t="n">
-        <v>-21772927.86349554</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>26</v>
-      </c>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3806,24 +3955,21 @@
         <v>8485.1957</v>
       </c>
       <c r="G98" t="n">
-        <v>-21781413.05919554</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>26</v>
-      </c>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3845,24 +3991,21 @@
         <v>573519.1299000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-21207893.92929554</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>26</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3884,24 +4027,21 @@
         <v>912510.1451</v>
       </c>
       <c r="G100" t="n">
-        <v>-20295383.78419554</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>26</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3923,26 +4063,21 @@
         <v>216772.9619</v>
       </c>
       <c r="G101" t="n">
-        <v>-20512156.74609554</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>26</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1.118076923076923</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.096234309623431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3964,18 +4099,21 @@
         <v>70769.18640000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-20441387.55969554</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,18 +4135,21 @@
         <v>340732.1396</v>
       </c>
       <c r="G103" t="n">
-        <v>-20782119.69929554</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4030,18 +4171,23 @@
         <v>219625.3046</v>
       </c>
       <c r="G104" t="n">
-        <v>-20562494.39469554</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1.237677824267783</v>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
-      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4063,18 +4209,15 @@
         <v>116902.2981</v>
       </c>
       <c r="G105" t="n">
-        <v>-20562494.39469554</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4096,18 +4239,15 @@
         <v>438789.66372067</v>
       </c>
       <c r="G106" t="n">
-        <v>-21001284.05841621</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4129,18 +4269,15 @@
         <v>90022.57327009999</v>
       </c>
       <c r="G107" t="n">
-        <v>-21091306.63168631</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4162,18 +4299,15 @@
         <v>27650.2863</v>
       </c>
       <c r="G108" t="n">
-        <v>-21063656.34538632</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4195,18 +4329,15 @@
         <v>266404.03571869</v>
       </c>
       <c r="G109" t="n">
-        <v>-20797252.30966762</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4228,18 +4359,15 @@
         <v>90159.57074369</v>
       </c>
       <c r="G110" t="n">
-        <v>-20887411.88041132</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4261,18 +4389,15 @@
         <v>514484.3965</v>
       </c>
       <c r="G111" t="n">
-        <v>-21401896.27691131</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4294,18 +4419,15 @@
         <v>138500.7482</v>
       </c>
       <c r="G112" t="n">
-        <v>-21540397.02511131</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4327,18 +4449,15 @@
         <v>156351.89079433</v>
       </c>
       <c r="G113" t="n">
-        <v>-21696748.91590564</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4360,18 +4479,15 @@
         <v>31207.7114</v>
       </c>
       <c r="G114" t="n">
-        <v>-21727956.62730564</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4393,18 +4509,15 @@
         <v>258955.8512</v>
       </c>
       <c r="G115" t="n">
-        <v>-21469000.77610564</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4426,18 +4539,15 @@
         <v>30841.503</v>
       </c>
       <c r="G116" t="n">
-        <v>-21438159.27310564</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4459,18 +4569,15 @@
         <v>70672.8241</v>
       </c>
       <c r="G117" t="n">
-        <v>-21367486.44900564</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4492,18 +4599,15 @@
         <v>32278.0868</v>
       </c>
       <c r="G118" t="n">
-        <v>-21399764.53580565</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4525,18 +4629,15 @@
         <v>361.0692</v>
       </c>
       <c r="G119" t="n">
-        <v>-21399764.53580565</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4558,18 +4659,15 @@
         <v>179223.5097</v>
       </c>
       <c r="G120" t="n">
-        <v>-21220541.02610565</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4591,18 +4689,15 @@
         <v>132014.4584</v>
       </c>
       <c r="G121" t="n">
-        <v>-21088526.56770565</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4624,18 +4719,15 @@
         <v>7276.9443</v>
       </c>
       <c r="G122" t="n">
-        <v>-21088526.56770565</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4657,18 +4749,15 @@
         <v>21384.0139</v>
       </c>
       <c r="G123" t="n">
-        <v>-21109910.58160565</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4690,18 +4779,15 @@
         <v>22</v>
       </c>
       <c r="G124" t="n">
-        <v>-21109888.58160565</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4723,18 +4809,15 @@
         <v>18006.5627</v>
       </c>
       <c r="G125" t="n">
-        <v>-21127895.14430565</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4756,18 +4839,15 @@
         <v>23505.5154</v>
       </c>
       <c r="G126" t="n">
-        <v>-21127895.14430565</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4789,18 +4869,15 @@
         <v>397610.6667</v>
       </c>
       <c r="G127" t="n">
-        <v>-21525505.81100565</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4822,18 +4899,15 @@
         <v>51056.6003</v>
       </c>
       <c r="G128" t="n">
-        <v>-21474449.21070565</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4855,18 +4929,15 @@
         <v>10000</v>
       </c>
       <c r="G129" t="n">
-        <v>-21464449.21070565</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4888,18 +4959,15 @@
         <v>196192.0317</v>
       </c>
       <c r="G130" t="n">
-        <v>-21660641.24240565</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4921,18 +4989,15 @@
         <v>83336.4354</v>
       </c>
       <c r="G131" t="n">
-        <v>-21743977.67780565</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4954,18 +5019,15 @@
         <v>23</v>
       </c>
       <c r="G132" t="n">
-        <v>-21743954.67780565</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4987,18 +5049,15 @@
         <v>106247.22667959</v>
       </c>
       <c r="G133" t="n">
-        <v>-21850201.90448524</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5020,18 +5079,15 @@
         <v>475894.7666</v>
       </c>
       <c r="G134" t="n">
-        <v>-22326096.67108524</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5053,18 +5109,15 @@
         <v>202043.9623</v>
       </c>
       <c r="G135" t="n">
-        <v>-22124052.70878524</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5086,18 +5139,15 @@
         <v>206019.9384</v>
       </c>
       <c r="G136" t="n">
-        <v>-22330072.64718524</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5119,18 +5169,15 @@
         <v>15437.87</v>
       </c>
       <c r="G137" t="n">
-        <v>-22345510.51718524</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5152,18 +5199,15 @@
         <v>239327.512</v>
       </c>
       <c r="G138" t="n">
-        <v>-22106183.00518525</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5185,18 +5229,15 @@
         <v>255.4018</v>
       </c>
       <c r="G139" t="n">
-        <v>-22106183.00518525</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5218,18 +5259,15 @@
         <v>23</v>
       </c>
       <c r="G140" t="n">
-        <v>-22106206.00518525</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5251,18 +5289,15 @@
         <v>37775.8129</v>
       </c>
       <c r="G141" t="n">
-        <v>-22068430.19228525</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5284,18 +5319,15 @@
         <v>793.65</v>
       </c>
       <c r="G142" t="n">
-        <v>-22067636.54228525</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5317,18 +5349,15 @@
         <v>27492.6885</v>
       </c>
       <c r="G143" t="n">
-        <v>-22095129.23078525</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5350,18 +5379,15 @@
         <v>1776.4971</v>
       </c>
       <c r="G144" t="n">
-        <v>-22096905.72788525</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5383,18 +5409,15 @@
         <v>532.4032</v>
       </c>
       <c r="G145" t="n">
-        <v>-22096373.32468525</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5416,18 +5439,15 @@
         <v>31072.5782</v>
       </c>
       <c r="G146" t="n">
-        <v>-22127445.90288525</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5449,18 +5469,15 @@
         <v>781.25</v>
       </c>
       <c r="G147" t="n">
-        <v>-22126664.65288525</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5482,18 +5499,15 @@
         <v>223</v>
       </c>
       <c r="G148" t="n">
-        <v>-22126441.65288525</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5515,18 +5529,15 @@
         <v>4978.475</v>
       </c>
       <c r="G149" t="n">
-        <v>-22131420.12788525</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5548,18 +5559,15 @@
         <v>9404.856</v>
       </c>
       <c r="G150" t="n">
-        <v>-22131420.12788525</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5581,18 +5589,15 @@
         <v>11078.3172</v>
       </c>
       <c r="G151" t="n">
-        <v>-22142498.44508525</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5614,18 +5619,15 @@
         <v>18069.1138</v>
       </c>
       <c r="G152" t="n">
-        <v>-22124429.33128525</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5647,18 +5649,15 @@
         <v>14856.3652</v>
       </c>
       <c r="G153" t="n">
-        <v>-22139285.69648525</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5680,18 +5679,15 @@
         <v>148516.9097</v>
       </c>
       <c r="G154" t="n">
-        <v>-22139285.69648525</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5713,18 +5709,15 @@
         <v>102276.733</v>
       </c>
       <c r="G155" t="n">
-        <v>-22037008.96348525</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5746,18 +5739,15 @@
         <v>7862.3051</v>
       </c>
       <c r="G156" t="n">
-        <v>-22044871.26858525</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5779,18 +5769,15 @@
         <v>55030.5235</v>
       </c>
       <c r="G157" t="n">
-        <v>-21989840.74508525</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5812,18 +5799,15 @@
         <v>122673.7346</v>
       </c>
       <c r="G158" t="n">
-        <v>-22112514.47968525</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5845,18 +5829,15 @@
         <v>16576.6348</v>
       </c>
       <c r="G159" t="n">
-        <v>-22129091.11448525</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5878,18 +5859,15 @@
         <v>88318.6599</v>
       </c>
       <c r="G160" t="n">
-        <v>-22129091.11448525</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5911,18 +5889,15 @@
         <v>19218.1307</v>
       </c>
       <c r="G161" t="n">
-        <v>-22109872.98378525</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5944,18 +5919,15 @@
         <v>81914.76029999999</v>
       </c>
       <c r="G162" t="n">
-        <v>-22191787.74408525</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5977,18 +5949,15 @@
         <v>21725.8423</v>
       </c>
       <c r="G163" t="n">
-        <v>-22191787.74408525</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6010,18 +5979,15 @@
         <v>81</v>
       </c>
       <c r="G164" t="n">
-        <v>-22191706.74408525</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6043,18 +6009,15 @@
         <v>7325.8198</v>
       </c>
       <c r="G165" t="n">
-        <v>-22199032.56388525</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6076,18 +6039,15 @@
         <v>7128.2204</v>
       </c>
       <c r="G166" t="n">
-        <v>-22191904.34348525</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6109,18 +6069,15 @@
         <v>41463.4141</v>
       </c>
       <c r="G167" t="n">
-        <v>-22233367.75758525</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6142,18 +6099,15 @@
         <v>9526.661</v>
       </c>
       <c r="G168" t="n">
-        <v>-22223841.09658525</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6175,18 +6129,15 @@
         <v>19018.1324</v>
       </c>
       <c r="G169" t="n">
-        <v>-22242859.22898525</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6208,18 +6159,15 @@
         <v>23</v>
       </c>
       <c r="G170" t="n">
-        <v>-22242836.22898525</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6241,18 +6189,15 @@
         <v>597.9876</v>
       </c>
       <c r="G171" t="n">
-        <v>-22243434.21658525</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6274,18 +6219,15 @@
         <v>2009.7177</v>
       </c>
       <c r="G172" t="n">
-        <v>-22241424.49888525</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6307,18 +6249,15 @@
         <v>65087.7544</v>
       </c>
       <c r="G173" t="n">
-        <v>-22176336.74448525</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6340,18 +6279,15 @@
         <v>48321.8863</v>
       </c>
       <c r="G174" t="n">
-        <v>-22224658.63078525</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6373,18 +6309,15 @@
         <v>12904.3864</v>
       </c>
       <c r="G175" t="n">
-        <v>-22211754.24438525</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6406,18 +6339,15 @@
         <v>4749.7583</v>
       </c>
       <c r="G176" t="n">
-        <v>-22216504.00268525</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6439,18 +6369,15 @@
         <v>1683.5135</v>
       </c>
       <c r="G177" t="n">
-        <v>-22216504.00268525</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6472,18 +6399,15 @@
         <v>31361.7648</v>
       </c>
       <c r="G178" t="n">
-        <v>-22247865.76748525</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6505,18 +6429,15 @@
         <v>23</v>
       </c>
       <c r="G179" t="n">
-        <v>-22247842.76748525</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6538,18 +6459,15 @@
         <v>184935.5394</v>
       </c>
       <c r="G180" t="n">
-        <v>-22432778.30688525</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6571,22 +6489,15 @@
         <v>691</v>
       </c>
       <c r="G181" t="n">
-        <v>-22433469.30688525</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6608,26 +6519,15 @@
         <v>16042.8554</v>
       </c>
       <c r="G182" t="n">
-        <v>-22449512.16228525</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J182" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6649,26 +6549,15 @@
         <v>74468.2896</v>
       </c>
       <c r="G183" t="n">
-        <v>-22375043.87268525</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J183" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6690,26 +6579,15 @@
         <v>11271.8932</v>
       </c>
       <c r="G184" t="n">
-        <v>-22375043.87268525</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J184" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6731,26 +6609,15 @@
         <v>13898.9998</v>
       </c>
       <c r="G185" t="n">
-        <v>-22361144.87288525</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J185" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6772,26 +6639,15 @@
         <v>4627.812</v>
       </c>
       <c r="G186" t="n">
-        <v>-22365772.68488525</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6813,26 +6669,15 @@
         <v>91682.7742</v>
       </c>
       <c r="G187" t="n">
-        <v>-22365772.68488525</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J187" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6854,26 +6699,15 @@
         <v>30</v>
       </c>
       <c r="G188" t="n">
-        <v>-22365772.68488525</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J188" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6895,26 +6729,15 @@
         <v>1250</v>
       </c>
       <c r="G189" t="n">
-        <v>-22365772.68488525</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J189" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6936,26 +6759,15 @@
         <v>30303.8216</v>
       </c>
       <c r="G190" t="n">
-        <v>-22396076.50648525</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J190" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6977,26 +6789,15 @@
         <v>82</v>
       </c>
       <c r="G191" t="n">
-        <v>-22395994.50648525</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J191" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7018,26 +6819,15 @@
         <v>19773.5757</v>
       </c>
       <c r="G192" t="n">
-        <v>-22395994.50648525</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J192" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7059,26 +6849,15 @@
         <v>14752.9787</v>
       </c>
       <c r="G193" t="n">
-        <v>-22381241.52778525</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J193" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7100,26 +6879,15 @@
         <v>7937.9879</v>
       </c>
       <c r="G194" t="n">
-        <v>-22373303.53988525</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J194" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7141,26 +6909,15 @@
         <v>45.952</v>
       </c>
       <c r="G195" t="n">
-        <v>-22373303.53988525</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J195" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7182,26 +6939,15 @@
         <v>2886.7924</v>
       </c>
       <c r="G196" t="n">
-        <v>-22376190.33228525</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J196" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7223,26 +6969,15 @@
         <v>8185.3347</v>
       </c>
       <c r="G197" t="n">
-        <v>-22384375.66698525</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J197" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7264,26 +6999,15 @@
         <v>11237.9401</v>
       </c>
       <c r="G198" t="n">
-        <v>-22373137.72688525</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J198" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7305,26 +7029,15 @@
         <v>50824.7241</v>
       </c>
       <c r="G199" t="n">
-        <v>-22423962.45098525</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J199" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7346,26 +7059,15 @@
         <v>21</v>
       </c>
       <c r="G200" t="n">
-        <v>-22423941.45098525</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J200" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7387,26 +7089,15 @@
         <v>21</v>
       </c>
       <c r="G201" t="n">
-        <v>-22423920.45098525</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J201" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7428,26 +7119,15 @@
         <v>1090.6997</v>
       </c>
       <c r="G202" t="n">
-        <v>-22423920.45098525</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7469,26 +7149,15 @@
         <v>3125.9249</v>
       </c>
       <c r="G203" t="n">
-        <v>-22423920.45098525</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J203" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7510,26 +7179,15 @@
         <v>21</v>
       </c>
       <c r="G204" t="n">
-        <v>-22423899.45098525</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J204" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7551,26 +7209,15 @@
         <v>15806.2722</v>
       </c>
       <c r="G205" t="n">
-        <v>-22439705.72318525</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J205" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7592,26 +7239,15 @@
         <v>21736.5746</v>
       </c>
       <c r="G206" t="n">
-        <v>-22439705.72318525</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J206" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7633,26 +7269,15 @@
         <v>21</v>
       </c>
       <c r="G207" t="n">
-        <v>-22439684.72318525</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J207" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7674,26 +7299,15 @@
         <v>7363.2154</v>
       </c>
       <c r="G208" t="n">
-        <v>-22432321.50778525</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J208" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7715,26 +7329,15 @@
         <v>4408.5097</v>
       </c>
       <c r="G209" t="n">
-        <v>-22432321.50778525</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J209" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7756,26 +7359,15 @@
         <v>53.0657</v>
       </c>
       <c r="G210" t="n">
-        <v>-22432321.50778525</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J210" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7797,26 +7389,15 @@
         <v>21159.2114</v>
       </c>
       <c r="G211" t="n">
-        <v>-22432321.50778525</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J211" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7838,26 +7419,15 @@
         <v>6229.6749</v>
       </c>
       <c r="G212" t="n">
-        <v>-22438551.18268525</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J212" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7879,26 +7449,15 @@
         <v>40958.2389</v>
       </c>
       <c r="G213" t="n">
-        <v>-22438551.18268525</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J213" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7920,26 +7479,15 @@
         <v>65724</v>
       </c>
       <c r="G214" t="n">
-        <v>-22372827.18268525</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J214" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7961,26 +7509,15 @@
         <v>104</v>
       </c>
       <c r="G215" t="n">
-        <v>-22372827.18268525</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="J215" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8002,26 +7539,15 @@
         <v>58144.3022</v>
       </c>
       <c r="G216" t="n">
-        <v>-22430971.48488525</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="J216" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8043,26 +7569,15 @@
         <v>21</v>
       </c>
       <c r="G217" t="n">
-        <v>-22430950.48488525</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J217" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8084,26 +7599,15 @@
         <v>51945.8728</v>
       </c>
       <c r="G218" t="n">
-        <v>-22482896.35768525</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J218" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8125,26 +7629,15 @@
         <v>21</v>
       </c>
       <c r="G219" t="n">
-        <v>-22482875.35768525</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J219" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8166,26 +7659,15 @@
         <v>6599.3722</v>
       </c>
       <c r="G220" t="n">
-        <v>-22489474.72988525</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J220" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8207,26 +7689,15 @@
         <v>2982.4014</v>
       </c>
       <c r="G221" t="n">
-        <v>-22486492.32848525</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J221" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8248,26 +7719,15 @@
         <v>11090.0283</v>
       </c>
       <c r="G222" t="n">
-        <v>-22497582.35678525</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="J222" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8289,26 +7749,15 @@
         <v>14111.834</v>
       </c>
       <c r="G223" t="n">
-        <v>-22483470.52278525</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8330,26 +7779,15 @@
         <v>2813.5531</v>
       </c>
       <c r="G224" t="n">
-        <v>-22486284.07588525</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="J224" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8371,26 +7809,15 @@
         <v>6933.9821</v>
       </c>
       <c r="G225" t="n">
-        <v>-22493218.05798525</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J225" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8412,26 +7839,15 @@
         <v>21</v>
       </c>
       <c r="G226" t="n">
-        <v>-22493197.05798525</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="J226" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8453,26 +7869,15 @@
         <v>21</v>
       </c>
       <c r="G227" t="n">
-        <v>-22493197.05798525</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J227" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8494,26 +7899,15 @@
         <v>20366.424</v>
       </c>
       <c r="G228" t="n">
-        <v>-22472830.63398525</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8535,26 +7929,15 @@
         <v>4553.9739</v>
       </c>
       <c r="G229" t="n">
-        <v>-22472830.63398525</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="J229" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8576,26 +7959,15 @@
         <v>17517.3451</v>
       </c>
       <c r="G230" t="n">
-        <v>-22455313.28888525</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="J230" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8617,26 +7989,15 @@
         <v>344285.8736</v>
       </c>
       <c r="G231" t="n">
-        <v>-22111027.41528525</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="J231" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8658,26 +8019,15 @@
         <v>63086.423</v>
       </c>
       <c r="G232" t="n">
-        <v>-22111027.41528525</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>26</v>
-      </c>
-      <c r="J232" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8699,26 +8049,15 @@
         <v>28749.4988</v>
       </c>
       <c r="G233" t="n">
-        <v>-22111027.41528525</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>26</v>
-      </c>
-      <c r="J233" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8740,26 +8079,15 @@
         <v>202115.5881</v>
       </c>
       <c r="G234" t="n">
-        <v>-21908911.82718525</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>26</v>
-      </c>
-      <c r="J234" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8781,26 +8109,15 @@
         <v>117136.4421</v>
       </c>
       <c r="G235" t="n">
-        <v>-21791775.38508525</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J235" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8822,24 +8139,15 @@
         <v>49554.7448</v>
       </c>
       <c r="G236" t="n">
-        <v>-21841330.12988525</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8861,24 +8169,15 @@
         <v>81182.0096</v>
       </c>
       <c r="G237" t="n">
-        <v>-21841330.12988525</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8900,24 +8199,15 @@
         <v>3014.8669</v>
       </c>
       <c r="G238" t="n">
-        <v>-21838315.26298525</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8939,24 +8229,15 @@
         <v>6056</v>
       </c>
       <c r="G239" t="n">
-        <v>-21838315.26298525</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8978,24 +8259,15 @@
         <v>40591.3875</v>
       </c>
       <c r="G240" t="n">
-        <v>-21878906.65048525</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9017,24 +8289,15 @@
         <v>15927.0118</v>
       </c>
       <c r="G241" t="n">
-        <v>-21894833.66228525</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9056,26 +8319,15 @@
         <v>6808.4964</v>
       </c>
       <c r="G242" t="n">
-        <v>-21894833.66228525</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J242" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9097,26 +8349,15 @@
         <v>46637.5954</v>
       </c>
       <c r="G243" t="n">
-        <v>-21941471.25768525</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J243" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9138,26 +8379,15 @@
         <v>3004.8636</v>
       </c>
       <c r="G244" t="n">
-        <v>-21938466.39408525</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J244" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9179,26 +8409,15 @@
         <v>7936.8738</v>
       </c>
       <c r="G245" t="n">
-        <v>-21930529.52028525</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J245" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9220,26 +8439,15 @@
         <v>4616.9739</v>
       </c>
       <c r="G246" t="n">
-        <v>-21930529.52028525</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J246" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9261,26 +8469,15 @@
         <v>39821.4997</v>
       </c>
       <c r="G247" t="n">
-        <v>-21890708.02058525</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J247" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9302,24 +8499,15 @@
         <v>11782.0231</v>
       </c>
       <c r="G248" t="n">
-        <v>-21902490.04368525</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9341,24 +8529,15 @@
         <v>1208</v>
       </c>
       <c r="G249" t="n">
-        <v>-21902490.04368525</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9380,26 +8559,15 @@
         <v>158083.2093</v>
       </c>
       <c r="G250" t="n">
-        <v>-21744406.83438525</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J250" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9421,24 +8589,15 @@
         <v>3108.2056</v>
       </c>
       <c r="G251" t="n">
-        <v>-21744406.83438525</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9460,26 +8619,15 @@
         <v>17901.503</v>
       </c>
       <c r="G252" t="n">
-        <v>-21762308.33738525</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J252" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9501,26 +8649,15 @@
         <v>1042</v>
       </c>
       <c r="G253" t="n">
-        <v>-21762308.33738525</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J253" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9542,26 +8679,15 @@
         <v>30</v>
       </c>
       <c r="G254" t="n">
-        <v>-21762308.33738525</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J254" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9583,26 +8709,15 @@
         <v>22620.1834</v>
       </c>
       <c r="G255" t="n">
-        <v>-21762308.33738525</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J255" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9624,26 +8739,15 @@
         <v>1595.7289</v>
       </c>
       <c r="G256" t="n">
-        <v>-21763904.06628525</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J256" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9665,26 +8769,15 @@
         <v>15214.1736</v>
       </c>
       <c r="G257" t="n">
-        <v>-21779118.23988525</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J257" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9706,26 +8799,15 @@
         <v>1039.1016</v>
       </c>
       <c r="G258" t="n">
-        <v>-21779118.23988525</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J258" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9747,26 +8829,15 @@
         <v>36012.9004</v>
       </c>
       <c r="G259" t="n">
-        <v>-21815131.14028525</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J259" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9788,26 +8859,15 @@
         <v>29597.3339</v>
       </c>
       <c r="G260" t="n">
-        <v>-21815131.14028525</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J260" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9829,26 +8889,15 @@
         <v>21</v>
       </c>
       <c r="G261" t="n">
-        <v>-21815110.14028525</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J261" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9870,26 +8919,15 @@
         <v>5078.4753</v>
       </c>
       <c r="G262" t="n">
-        <v>-21815110.14028525</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J262" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9911,26 +8949,15 @@
         <v>3000</v>
       </c>
       <c r="G263" t="n">
-        <v>-21818110.14028525</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J263" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9952,26 +8979,15 @@
         <v>138290.5115</v>
       </c>
       <c r="G264" t="n">
-        <v>-21679819.62878525</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>25</v>
-      </c>
-      <c r="J264" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9993,26 +9009,15 @@
         <v>12836.5045</v>
       </c>
       <c r="G265" t="n">
-        <v>-21692656.13328525</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J265" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10034,26 +9039,15 @@
         <v>67508.78389999999</v>
       </c>
       <c r="G266" t="n">
-        <v>-21760164.91718525</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J266" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10075,26 +9069,15 @@
         <v>38367.9699</v>
       </c>
       <c r="G267" t="n">
-        <v>-21721796.94728525</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="J267" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10116,26 +9099,15 @@
         <v>11782.0231</v>
       </c>
       <c r="G268" t="n">
-        <v>-21733578.97038525</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J268" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10157,26 +9129,15 @@
         <v>2974.314</v>
       </c>
       <c r="G269" t="n">
-        <v>-21730604.65638525</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J269" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10198,26 +9159,15 @@
         <v>21</v>
       </c>
       <c r="G270" t="n">
-        <v>-21730583.65638525</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="J270" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10239,26 +9189,15 @@
         <v>99867.5477</v>
       </c>
       <c r="G271" t="n">
-        <v>-21730583.65638525</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="J271" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10280,26 +9219,15 @@
         <v>49089.2567</v>
       </c>
       <c r="G272" t="n">
-        <v>-21730583.65638525</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="J272" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10321,26 +9249,15 @@
         <v>12203.3829</v>
       </c>
       <c r="G273" t="n">
-        <v>-21718380.27348525</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="J273" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10362,26 +9279,15 @@
         <v>1908.9217</v>
       </c>
       <c r="G274" t="n">
-        <v>-21718380.27348525</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J274" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10403,26 +9309,15 @@
         <v>9333</v>
       </c>
       <c r="G275" t="n">
-        <v>-21718380.27348525</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J275" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10444,24 +9339,15 @@
         <v>22042.4722</v>
       </c>
       <c r="G276" t="n">
-        <v>-21696337.80128526</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10483,26 +9369,15 @@
         <v>1021</v>
       </c>
       <c r="G277" t="n">
-        <v>-21697358.80128526</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J277" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10524,24 +9399,15 @@
         <v>26363.3827</v>
       </c>
       <c r="G278" t="n">
-        <v>-21670995.41858526</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10563,24 +9429,15 @@
         <v>27871.2481</v>
       </c>
       <c r="G279" t="n">
-        <v>-21698866.66668526</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
